--- a/tests/test1/d20/ЛМ, 0.1.xlsx
+++ b/tests/test1/d20/ЛМ, 0.1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -582,7 +582,7 @@
         <v>359.9767995604448</v>
       </c>
       <c r="F2" t="n">
-        <v>20.06244861103993</v>
+        <v>20.06244861103994</v>
       </c>
       <c r="G2" t="n">
         <v>98.7013888676739</v>
@@ -612,25 +612,25 @@
         <v>44.35073496420272</v>
       </c>
       <c r="P2" t="n">
-        <v>21.43877181774204</v>
+        <v>21.43877181774205</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005145642155990388</v>
+        <v>0.005145642155989951</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07943728547443379</v>
+        <v>0.07943728547441899</v>
       </c>
       <c r="S2" t="n">
-        <v>0.06945832861752216</v>
+        <v>0.06945832861750864</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01827901805351357</v>
+        <v>0.01827901805351378</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00998621806334804</v>
+        <v>0.009986218063347999</v>
       </c>
       <c r="V2" t="n">
-        <v>0.03202089872948712</v>
+        <v>0.03202089872948805</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>0.002538200000003599</v>
+        <v>0.002729200000004539</v>
       </c>
       <c r="Y2" t="n">
         <v>10</v>
@@ -664,10 +664,10 @@
         <v>0.002588770764239417</v>
       </c>
       <c r="F3" t="n">
-        <v>19.90823357538554</v>
+        <v>19.90823357538553</v>
       </c>
       <c r="G3" t="n">
-        <v>75.06399343379461</v>
+        <v>75.06399343379459</v>
       </c>
       <c r="H3" t="n">
         <v>11.56356543815644</v>
@@ -691,28 +691,28 @@
         <v>25.60484930330038</v>
       </c>
       <c r="O3" t="n">
-        <v>34.93849567508168</v>
+        <v>34.93849567508169</v>
       </c>
       <c r="P3" t="n">
         <v>25.45642434325508</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.005232573167382234</v>
+        <v>0.005232573167382138</v>
       </c>
       <c r="R3" t="n">
-        <v>0.07679031188965192</v>
+        <v>0.07679031188965871</v>
       </c>
       <c r="S3" t="n">
-        <v>0.06656502238518436</v>
+        <v>0.06656502238518859</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03394049603558548</v>
+        <v>0.03394049603558476</v>
       </c>
       <c r="U3" t="n">
-        <v>0.009940288415402463</v>
+        <v>0.009940288415402431</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0318457579294699</v>
+        <v>0.03184575792946208</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -720,7 +720,7 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>0.002470000000002415</v>
+        <v>0.002026499999999487</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -749,10 +749,10 @@
         <v>20.04647290696344</v>
       </c>
       <c r="G4" t="n">
-        <v>79.76551368101507</v>
+        <v>79.76551368101499</v>
       </c>
       <c r="H4" t="n">
-        <v>3.286753494422691</v>
+        <v>3.286753494422692</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -779,22 +779,22 @@
         <v>18.82275722558625</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.004616811050160416</v>
+        <v>0.004616811050160363</v>
       </c>
       <c r="R4" t="n">
-        <v>0.05046936124258335</v>
+        <v>0.05046936124258276</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02420934958313267</v>
+        <v>0.02420934958313187</v>
       </c>
       <c r="T4" t="n">
-        <v>0.05884044865458084</v>
+        <v>0.0588404486545799</v>
       </c>
       <c r="U4" t="n">
-        <v>0.01054873989744982</v>
+        <v>0.01054873989744983</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05874937073161339</v>
+        <v>0.05874937073161027</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>0.002070500000002085</v>
+        <v>0.001610299999981635</v>
       </c>
       <c r="Y4" t="n">
         <v>8</v>
@@ -828,13 +828,13 @@
         <v>0.02318576635838809</v>
       </c>
       <c r="F5" t="n">
-        <v>19.90615521355089</v>
+        <v>19.90615521355088</v>
       </c>
       <c r="G5" t="n">
         <v>99.29603829254445</v>
       </c>
       <c r="H5" t="n">
-        <v>11.40008754127243</v>
+        <v>11.40008754127242</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -855,28 +855,28 @@
         <v>21.20345840520746</v>
       </c>
       <c r="O5" t="n">
-        <v>44.22795980871659</v>
+        <v>44.2279598087166</v>
       </c>
       <c r="P5" t="n">
-        <v>21.04464430267424</v>
+        <v>21.04464430267423</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005060772736633143</v>
+        <v>0.005060772736632854</v>
       </c>
       <c r="R5" t="n">
-        <v>0.07752058242886886</v>
+        <v>0.07752058242884764</v>
       </c>
       <c r="S5" t="n">
-        <v>0.06735924174209985</v>
+        <v>0.06735924174208291</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01812974056559858</v>
+        <v>0.01812974056559844</v>
       </c>
       <c r="U5" t="n">
-        <v>0.01044578713999734</v>
+        <v>0.01044578713999733</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04011188686326751</v>
+        <v>0.04011188686326913</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>0.005043200000002912</v>
+        <v>0.002749899999997751</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -916,7 +916,7 @@
         <v>174.1320491633404</v>
       </c>
       <c r="H6" t="n">
-        <v>9.581457603391289</v>
+        <v>9.581457603391287</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>21.5479519792833</v>
       </c>
       <c r="P6" t="n">
-        <v>6.387694621775339</v>
+        <v>6.38769462177534</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.003826883732736857</v>
+        <v>0.003826883732736875</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02660172331380915</v>
+        <v>0.0266017233138101</v>
       </c>
       <c r="S6" t="n">
-        <v>0.01367539814505006</v>
+        <v>0.01367539814505047</v>
       </c>
       <c r="T6" t="n">
         <v>0.02445262532594681</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00940919803236716</v>
+        <v>0.009409198032367177</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01643116285898318</v>
+        <v>0.01643116285898226</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>0.004698199999999986</v>
+        <v>0.001810300000016696</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -992,7 +992,7 @@
         <v>359.9838773749757</v>
       </c>
       <c r="F7" t="n">
-        <v>20.06058640447522</v>
+        <v>20.06058640447521</v>
       </c>
       <c r="G7" t="n">
         <v>39.95064750874756</v>
@@ -1022,25 +1022,25 @@
         <v>21.20103836739139</v>
       </c>
       <c r="P7" t="n">
-        <v>32.07037069117087</v>
+        <v>32.07037069117086</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.005460595271657371</v>
+        <v>0.005460595271657322</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07876688932972228</v>
+        <v>0.07876688932972745</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05600013541818187</v>
+        <v>0.0560001354181846</v>
       </c>
       <c r="T7" t="n">
-        <v>0.07898036978271182</v>
+        <v>0.07898036978271239</v>
       </c>
       <c r="U7" t="n">
-        <v>0.009593144980923854</v>
+        <v>0.009593144980923901</v>
       </c>
       <c r="V7" t="n">
-        <v>0.02801019051215267</v>
+        <v>0.0280101905121516</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1048,7 +1048,7 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>0.002091899999996372</v>
+        <v>0.001618700000022955</v>
       </c>
       <c r="Y7" t="n">
         <v>8</v>
@@ -1080,7 +1080,7 @@
         <v>160.9300538299962</v>
       </c>
       <c r="H8" t="n">
-        <v>6.991425590065957</v>
+        <v>6.991425590065958</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>10.19750116000852</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.004194536274338727</v>
+        <v>0.004194536274338791</v>
       </c>
       <c r="R8" t="n">
-        <v>0.03568196785069793</v>
+        <v>0.03568196785069717</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01893086698374366</v>
+        <v>0.01893086698374355</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02811919711176135</v>
+        <v>0.02811919711176216</v>
       </c>
       <c r="U8" t="n">
-        <v>0.009284423326867209</v>
+        <v>0.009284423326867219</v>
       </c>
       <c r="V8" t="n">
-        <v>0.02004096685526894</v>
+        <v>0.02004096685526896</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>0.005387100000000089</v>
+        <v>0.001809699999995473</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1156,7 +1156,7 @@
         <v>0.01166776110045109</v>
       </c>
       <c r="F9" t="n">
-        <v>19.87535957333034</v>
+        <v>19.87535957333033</v>
       </c>
       <c r="G9" t="n">
         <v>13.675056054687</v>
@@ -1189,22 +1189,22 @@
         <v>31.84723591691618</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.004996405493143574</v>
+        <v>0.004996405493143525</v>
       </c>
       <c r="R9" t="n">
-        <v>0.08468750813737171</v>
+        <v>0.08468750813737187</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02702244972398779</v>
+        <v>0.02702244972398701</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1371219345249918</v>
+        <v>0.1371219345249896</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009488503882285407</v>
+        <v>0.009488503882285381</v>
       </c>
       <c r="V9" t="n">
-        <v>0.04848477846061224</v>
+        <v>0.04848477846061117</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>0.001806299999998373</v>
+        <v>0.001538500000009435</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
@@ -1238,13 +1238,13 @@
         <v>0.001855184321305411</v>
       </c>
       <c r="F10" t="n">
-        <v>20.01189295343072</v>
+        <v>20.01189295343075</v>
       </c>
       <c r="G10" t="n">
         <v>157.2163963632823</v>
       </c>
       <c r="H10" t="n">
-        <v>14.63206321479896</v>
+        <v>14.63206321479898</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1265,28 +1265,28 @@
         <v>8.056033186416919</v>
       </c>
       <c r="O10" t="n">
-        <v>81.38858626364352</v>
+        <v>81.38858626364349</v>
       </c>
       <c r="P10" t="n">
-        <v>8.061533928740635</v>
+        <v>8.061533928740648</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.005176531573463319</v>
+        <v>0.005176531573491529</v>
       </c>
       <c r="R10" t="n">
-        <v>0.1146822827336102</v>
+        <v>0.1146822827345278</v>
       </c>
       <c r="S10" t="n">
-        <v>0.05940545754757672</v>
+        <v>0.05940545754804648</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0870449247375831</v>
+        <v>0.08704492473827928</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01096000924169204</v>
+        <v>0.01096000924169203</v>
       </c>
       <c r="V10" t="n">
-        <v>0.003843771492051377</v>
+        <v>0.003843771492064396</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>0.007750200000003815</v>
+        <v>0.0042741000000035</v>
       </c>
       <c r="Y10" t="n">
         <v>24</v>
@@ -1326,7 +1326,7 @@
         <v>1.893914368219446</v>
       </c>
       <c r="H11" t="n">
-        <v>8.953839388591485</v>
+        <v>8.953839388591483</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1353,22 +1353,22 @@
         <v>28.23392634954073</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.004084049254921488</v>
+        <v>0.004084049254921505</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1273129831840354</v>
+        <v>0.1273129831840359</v>
       </c>
       <c r="S11" t="n">
         <v>0.0138941624688062</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2023394536150161</v>
+        <v>0.2023394536150167</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01047026533594519</v>
+        <v>0.01047026533594517</v>
       </c>
       <c r="V11" t="n">
-        <v>0.02122290016228767</v>
+        <v>0.02122290016228858</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>0.001962800000001153</v>
+        <v>0.001534200000008923</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1408,7 +1408,7 @@
         <v>138.8726900196384</v>
       </c>
       <c r="H12" t="n">
-        <v>3.256129273341684</v>
+        <v>3.256129273341682</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1432,25 +1432,25 @@
         <v>14.50797380925492</v>
       </c>
       <c r="P12" t="n">
-        <v>14.92070361123164</v>
+        <v>14.92070361123165</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004289278079463355</v>
+        <v>0.00428927807946339</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04278722861981722</v>
+        <v>0.04278722861981676</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01862649354456468</v>
+        <v>0.01862649354456406</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05348309568986823</v>
+        <v>0.05348309568986961</v>
       </c>
       <c r="U12" t="n">
-        <v>0.008896325795816994</v>
+        <v>0.008896325795817069</v>
       </c>
       <c r="V12" t="n">
-        <v>0.008654104497976097</v>
+        <v>0.008654104497972912</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>0.004834899999998754</v>
+        <v>0.001690199999984543</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
@@ -1487,10 +1487,10 @@
         <v>19.88629027040306</v>
       </c>
       <c r="G13" t="n">
-        <v>32.16840067846206</v>
+        <v>32.16840067846211</v>
       </c>
       <c r="H13" t="n">
-        <v>3.207783807162172</v>
+        <v>3.207783807162166</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1517,13 +1517,13 @@
         <v>20.77960997195779</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00437035553873156</v>
+        <v>0.004370355538731554</v>
       </c>
       <c r="R13" t="n">
-        <v>0.06099533576018643</v>
+        <v>0.06099533576018749</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01819895306952815</v>
+        <v>0.01819895306952779</v>
       </c>
       <c r="T13" t="n">
         <v>0.09377009904891766</v>
@@ -1532,7 +1532,7 @@
         <v>0.009628745280476102</v>
       </c>
       <c r="V13" t="n">
-        <v>0.04468725317893611</v>
+        <v>0.04468725317894041</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>0.002043600000000367</v>
+        <v>0.001424899999989293</v>
       </c>
       <c r="Y13" t="n">
         <v>7</v>
@@ -1566,13 +1566,13 @@
         <v>0.008120290773887049</v>
       </c>
       <c r="F14" t="n">
-        <v>20.09068954098283</v>
+        <v>20.09068954098282</v>
       </c>
       <c r="G14" t="n">
         <v>27.72830526648862</v>
       </c>
       <c r="H14" t="n">
-        <v>11.99668580168776</v>
+        <v>11.99668580168777</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1596,25 +1596,25 @@
         <v>14.60087370936258</v>
       </c>
       <c r="P14" t="n">
-        <v>31.22558647083472</v>
+        <v>31.22558647083473</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.005292623820532398</v>
+        <v>0.005292623820532456</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07493233708513092</v>
+        <v>0.07493233708512896</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03969401900470892</v>
+        <v>0.03969401900470839</v>
       </c>
       <c r="T14" t="n">
-        <v>0.09697893593020776</v>
+        <v>0.09697893593020829</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01007010497905624</v>
+        <v>0.01007010497905625</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04004517206714722</v>
+        <v>0.04004517206714873</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>0.00298519999999769</v>
+        <v>0.001637199999976247</v>
       </c>
       <c r="Y14" t="n">
         <v>8</v>
@@ -1648,13 +1648,13 @@
         <v>0.001257508871277223</v>
       </c>
       <c r="F15" t="n">
-        <v>20.01162423283515</v>
+        <v>20.01162423283514</v>
       </c>
       <c r="G15" t="n">
         <v>139.9474972500601</v>
       </c>
       <c r="H15" t="n">
-        <v>5.854994898522999</v>
+        <v>5.854994898522997</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1675,28 +1675,28 @@
         <v>13.2842839938443</v>
       </c>
       <c r="O15" t="n">
-        <v>25.34499749181614</v>
+        <v>25.34499749181613</v>
       </c>
       <c r="P15" t="n">
         <v>13.29706610770048</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.004496683255863478</v>
+        <v>0.004496683255863514</v>
       </c>
       <c r="R15" t="n">
-        <v>0.04450089598447462</v>
+        <v>0.04450089598447499</v>
       </c>
       <c r="S15" t="n">
-        <v>0.02550090477182903</v>
+        <v>0.02550090477183009</v>
       </c>
       <c r="T15" t="n">
-        <v>0.02818926289109743</v>
+        <v>0.02818926289109662</v>
       </c>
       <c r="U15" t="n">
-        <v>0.008773800139899118</v>
+        <v>0.00877380013989913</v>
       </c>
       <c r="V15" t="n">
-        <v>0.007000352765876515</v>
+        <v>0.007000352765875533</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>0.002243499999998733</v>
+        <v>0.001866400000011481</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -1730,13 +1730,13 @@
         <v>0.01861371961370017</v>
       </c>
       <c r="F16" t="n">
-        <v>19.96884407800016</v>
+        <v>19.96884407800015</v>
       </c>
       <c r="G16" t="n">
         <v>92.46571132888963</v>
       </c>
       <c r="H16" t="n">
-        <v>12.25509987605676</v>
+        <v>12.25509987605675</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1760,25 +1760,25 @@
         <v>43.50531261846316</v>
       </c>
       <c r="P16" t="n">
-        <v>23.05192088525915</v>
+        <v>23.05192088525914</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00516444810671602</v>
+        <v>0.005164448106716269</v>
       </c>
       <c r="R16" t="n">
-        <v>0.08139287985261294</v>
+        <v>0.08139287985262371</v>
       </c>
       <c r="S16" t="n">
-        <v>0.07414477880875725</v>
+        <v>0.07414477880876696</v>
       </c>
       <c r="T16" t="n">
-        <v>0.01948824570479711</v>
+        <v>0.01948824570479742</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01038613302925953</v>
+        <v>0.01038613302925958</v>
       </c>
       <c r="V16" t="n">
-        <v>0.008993478427710557</v>
+        <v>0.008993478427712772</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>0.003734699999995428</v>
+        <v>0.001929999999987331</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -1818,7 +1818,7 @@
         <v>152.8467160442211</v>
       </c>
       <c r="H17" t="n">
-        <v>5.145539419186996</v>
+        <v>5.145539419186993</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1845,22 +1845,22 @@
         <v>12.53082409954039</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.004258906386096742</v>
+        <v>0.004258906386096796</v>
       </c>
       <c r="R17" t="n">
-        <v>0.03839375869021756</v>
+        <v>0.03839375869021758</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01917509260368716</v>
+        <v>0.01917509260368775</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03865466511193728</v>
+        <v>0.0386546651119378</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01001632177724752</v>
+        <v>0.01001632177724753</v>
       </c>
       <c r="V17" t="n">
-        <v>0.00425814497520491</v>
+        <v>0.004258144975206204</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -1868,7 +1868,7 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>0.002009000000001038</v>
+        <v>0.00160280000000057</v>
       </c>
       <c r="Y17" t="n">
         <v>8</v>
@@ -1894,13 +1894,13 @@
         <v>0.00555493155318425</v>
       </c>
       <c r="F18" t="n">
-        <v>19.87259732626764</v>
+        <v>19.87259732626763</v>
       </c>
       <c r="G18" t="n">
-        <v>40.23690140421385</v>
+        <v>40.23690140421384</v>
       </c>
       <c r="H18" t="n">
-        <v>9.158236069270144</v>
+        <v>9.158236069270146</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1927,10 +1927,10 @@
         <v>26.94653677451939</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.005112397118665987</v>
+        <v>0.005112397118665982</v>
       </c>
       <c r="R18" t="n">
-        <v>0.06625107225531929</v>
+        <v>0.0662510722553188</v>
       </c>
       <c r="S18" t="n">
         <v>0.03899122403604006</v>
@@ -1939,10 +1939,10 @@
         <v>0.07187940081887756</v>
       </c>
       <c r="U18" t="n">
-        <v>0.008524750405410604</v>
+        <v>0.008524750405410626</v>
       </c>
       <c r="V18" t="n">
-        <v>0.0521183159063125</v>
+        <v>0.05211831590631225</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>0.002729300000005708</v>
+        <v>0.002279100000009748</v>
       </c>
       <c r="Y18" t="n">
         <v>8</v>
@@ -2009,19 +2009,19 @@
         <v>26.24017985087952</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.005188205940754278</v>
+        <v>0.005188205940754074</v>
       </c>
       <c r="R19" t="n">
-        <v>0.06814262738976432</v>
+        <v>0.06814262738975849</v>
       </c>
       <c r="S19" t="n">
-        <v>0.04649175984030501</v>
+        <v>0.04649175984029973</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05743809252695671</v>
+        <v>0.05743809252695304</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01030480710323306</v>
+        <v>0.01030480710323307</v>
       </c>
       <c r="V19" t="n">
         <v>0.02467880535288237</v>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>0.002488599999999508</v>
+        <v>0.001610500000026605</v>
       </c>
       <c r="Y19" t="n">
         <v>8</v>
@@ -2058,13 +2058,13 @@
         <v>359.9667527893555</v>
       </c>
       <c r="F20" t="n">
-        <v>20.09122299193704</v>
+        <v>20.09122299193705</v>
       </c>
       <c r="G20" t="n">
         <v>116.7996896865357</v>
       </c>
       <c r="H20" t="n">
-        <v>9.141234554666399</v>
+        <v>9.141234554666402</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2085,28 +2085,28 @@
         <v>16.50686888128499</v>
       </c>
       <c r="O20" t="n">
-        <v>41.1525898020007</v>
+        <v>41.15258980200069</v>
       </c>
       <c r="P20" t="n">
-        <v>16.63969193903687</v>
+        <v>16.63969193903688</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.004911657885063894</v>
+        <v>0.004911657885063759</v>
       </c>
       <c r="R20" t="n">
-        <v>0.06600910476698317</v>
+        <v>0.06600910476697602</v>
       </c>
       <c r="S20" t="n">
-        <v>0.04832520701634629</v>
+        <v>0.04832520701634111</v>
       </c>
       <c r="T20" t="n">
-        <v>0.01858996027141359</v>
+        <v>0.01858996027141353</v>
       </c>
       <c r="U20" t="n">
         <v>0.01021075434697006</v>
       </c>
       <c r="V20" t="n">
-        <v>0.0469259438859599</v>
+        <v>0.04692594388596196</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>0.004072099999994805</v>
+        <v>0.001969399999978805</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -2173,19 +2173,19 @@
         <v>31.77944820157002</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.005114218354663062</v>
+        <v>0.005114218354663178</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07975506187470406</v>
+        <v>0.07975506187470405</v>
       </c>
       <c r="S21" t="n">
-        <v>0.03066215661260769</v>
+        <v>0.03066215661260955</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1230279837599301</v>
+        <v>0.1230279837599354</v>
       </c>
       <c r="U21" t="n">
-        <v>0.00964804972096322</v>
+        <v>0.009648049720963232</v>
       </c>
       <c r="V21" t="n">
         <v>0.01300534357847287</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>0.001992100000002495</v>
+        <v>0.00165730000000508</v>
       </c>
       <c r="Y21" t="n">
         <v>8</v>
@@ -2222,13 +2222,13 @@
         <v>0.01360987516745153</v>
       </c>
       <c r="F22" t="n">
-        <v>19.88869053376072</v>
+        <v>19.88869053376071</v>
       </c>
       <c r="G22" t="n">
         <v>105.9228789492884</v>
       </c>
       <c r="H22" t="n">
-        <v>13.6612824262466</v>
+        <v>13.66128242624659</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2252,25 +2252,25 @@
         <v>52.97871145464566</v>
       </c>
       <c r="P22" t="n">
-        <v>21.21677861023183</v>
+        <v>21.21677861023182</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.005110788250407821</v>
+        <v>0.005110788250407025</v>
       </c>
       <c r="R22" t="n">
-        <v>0.08912407874527489</v>
+        <v>0.08912407874523076</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08397218177596114</v>
+        <v>0.08397218177592077</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02191137803306534</v>
+        <v>0.02191137803305847</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009422116889665691</v>
+        <v>0.009422116889665709</v>
       </c>
       <c r="V22" t="n">
-        <v>0.0369931279303663</v>
+        <v>0.03699312793036993</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -2278,7 +2278,7 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>0.003552599999999018</v>
+        <v>0.002278900000021622</v>
       </c>
       <c r="Y22" t="n">
         <v>11</v>
@@ -2310,7 +2310,7 @@
         <v>8.911266449055976</v>
       </c>
       <c r="H23" t="n">
-        <v>6.600258302655985</v>
+        <v>6.600258302655976</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2334,25 +2334,25 @@
         <v>5.401943077286709</v>
       </c>
       <c r="P23" t="n">
-        <v>25.41284050145242</v>
+        <v>25.41284050145241</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.004337620332369589</v>
+        <v>0.004337620332369629</v>
       </c>
       <c r="R23" t="n">
-        <v>0.0897210164145619</v>
+        <v>0.08972101641456148</v>
       </c>
       <c r="S23" t="n">
-        <v>0.01657318028887423</v>
+        <v>0.01657318028887435</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1451770162833295</v>
+        <v>0.1451770162833308</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01012951433949562</v>
+        <v>0.01012951433949563</v>
       </c>
       <c r="V23" t="n">
-        <v>0.07905128972062803</v>
+        <v>0.07905128972062411</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>0.001777000000004136</v>
+        <v>0.001436200000000554</v>
       </c>
       <c r="Y23" t="n">
         <v>7</v>
@@ -2389,10 +2389,10 @@
         <v>20.09578239261483</v>
       </c>
       <c r="G24" t="n">
-        <v>37.84197597598934</v>
+        <v>37.84197597598936</v>
       </c>
       <c r="H24" t="n">
-        <v>8.731443878721787</v>
+        <v>8.731443878721784</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2416,25 +2416,25 @@
         <v>16.4396623285959</v>
       </c>
       <c r="P24" t="n">
-        <v>26.85148009821396</v>
+        <v>26.85148009821397</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.005121081985963336</v>
+        <v>0.00512108198596331</v>
       </c>
       <c r="R24" t="n">
-        <v>0.06652308135400867</v>
+        <v>0.06652308135400962</v>
       </c>
       <c r="S24" t="n">
-        <v>0.03657205665099624</v>
+        <v>0.03657205665099638</v>
       </c>
       <c r="T24" t="n">
-        <v>0.07641721855504319</v>
+        <v>0.07641721855504269</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0110306210066114</v>
+        <v>0.01103062100661139</v>
       </c>
       <c r="V24" t="n">
-        <v>0.02657047502186681</v>
+        <v>0.02657047502186826</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>0.003041099999997243</v>
+        <v>0.001629400000012993</v>
       </c>
       <c r="Y24" t="n">
         <v>8</v>
@@ -2468,7 +2468,7 @@
         <v>359.9942669833308</v>
       </c>
       <c r="F25" t="n">
-        <v>19.96690400643244</v>
+        <v>19.96690400643243</v>
       </c>
       <c r="G25" t="n">
         <v>93.10429859939147</v>
@@ -2495,28 +2495,28 @@
         <v>24.6655445066675</v>
       </c>
       <c r="O25" t="n">
-        <v>48.1895207792187</v>
+        <v>48.18952077921871</v>
       </c>
       <c r="P25" t="n">
         <v>24.62750964175805</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.005268410499044559</v>
+        <v>0.005268410499044948</v>
       </c>
       <c r="R25" t="n">
-        <v>0.09084976180620485</v>
+        <v>0.0908497618062194</v>
       </c>
       <c r="S25" t="n">
-        <v>0.09083608650793973</v>
+        <v>0.09083608650795515</v>
       </c>
       <c r="T25" t="n">
-        <v>0.01757202952135588</v>
+        <v>0.01757202952135577</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009161635574718262</v>
+        <v>0.009161635574718279</v>
       </c>
       <c r="V25" t="n">
-        <v>0.009042689806213753</v>
+        <v>0.009042689806214612</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>0.004079799999999523</v>
+        <v>0.002278700000005074</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -2583,22 +2583,22 @@
         <v>4.820153823777749</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.004237429129221207</v>
+        <v>0.004237429129221274</v>
       </c>
       <c r="R26" t="n">
-        <v>0.04023207343771152</v>
+        <v>0.04023207343771047</v>
       </c>
       <c r="S26" t="n">
-        <v>0.0191101126869695</v>
+        <v>0.01911011268696952</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01693981689002092</v>
+        <v>0.01693981689002013</v>
       </c>
       <c r="U26" t="n">
-        <v>0.009740127622826148</v>
+        <v>0.00974012762282612</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01814224945015503</v>
+        <v>0.01814224945015472</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>0.004441199999995149</v>
+        <v>0.002127900000004956</v>
       </c>
       <c r="Y26" t="n">
         <v>11</v>
@@ -2632,13 +2632,13 @@
         <v>0.003083524576493807</v>
       </c>
       <c r="F27" t="n">
-        <v>20.05244611232232</v>
+        <v>20.05244611232233</v>
       </c>
       <c r="G27" t="n">
         <v>156.6043728762647</v>
       </c>
       <c r="H27" t="n">
-        <v>10.01990513909984</v>
+        <v>10.01990513909985</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2659,28 +2659,28 @@
         <v>8.709475492388034</v>
       </c>
       <c r="O27" t="n">
-        <v>42.89046644140608</v>
+        <v>42.8904664414061</v>
       </c>
       <c r="P27" t="n">
         <v>8.736351959787255</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.004522038789657155</v>
+        <v>0.004522038789657113</v>
       </c>
       <c r="R27" t="n">
-        <v>0.05255300834561547</v>
+        <v>0.05255300834561477</v>
       </c>
       <c r="S27" t="n">
-        <v>0.02916815099552328</v>
+        <v>0.02916815099552296</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02080950157264893</v>
+        <v>0.02080950157264858</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01068857486013952</v>
+        <v>0.01068857486013945</v>
       </c>
       <c r="V27" t="n">
-        <v>0.0177043250260049</v>
+        <v>0.01770432502600668</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>0.007712899999994249</v>
+        <v>0.002401099999985945</v>
       </c>
       <c r="Y27" t="n">
         <v>13</v>
@@ -2747,22 +2747,22 @@
         <v>25.78288062662892</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.005176781535996491</v>
+        <v>0.005176781535996725</v>
       </c>
       <c r="R28" t="n">
-        <v>0.06796019098629455</v>
+        <v>0.06796019098629846</v>
       </c>
       <c r="S28" t="n">
-        <v>0.04681698726421631</v>
+        <v>0.0468169872642206</v>
       </c>
       <c r="T28" t="n">
-        <v>0.05475013324290193</v>
+        <v>0.05475013324290567</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009601414828810891</v>
+        <v>0.009601414828810847</v>
       </c>
       <c r="V28" t="n">
-        <v>0.01590196577254221</v>
+        <v>0.01590196577254176</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>0.002154599999997231</v>
+        <v>0.001735400000001164</v>
       </c>
       <c r="Y28" t="n">
         <v>8</v>
@@ -2799,7 +2799,7 @@
         <v>20.0127699910999</v>
       </c>
       <c r="G29" t="n">
-        <v>76.56341374155026</v>
+        <v>76.56341374155025</v>
       </c>
       <c r="H29" t="n">
         <v>12.81707517405767</v>
@@ -2829,19 +2829,19 @@
         <v>26.45171049206399</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.005326527972947916</v>
+        <v>0.005326527972947826</v>
       </c>
       <c r="R29" t="n">
-        <v>0.08212468630874623</v>
+        <v>0.08212468630874284</v>
       </c>
       <c r="S29" t="n">
-        <v>0.07554027319504432</v>
+        <v>0.07554027319504113</v>
       </c>
       <c r="T29" t="n">
-        <v>0.03202943183433075</v>
+        <v>0.03202943183433024</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01035194371023426</v>
+        <v>0.01035194371023429</v>
       </c>
       <c r="V29" t="n">
         <v>0.01578772406461931</v>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>0.003001100000005863</v>
+        <v>0.001954299999994191</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
@@ -2878,13 +2878,13 @@
         <v>359.9970825948404</v>
       </c>
       <c r="F30" t="n">
-        <v>20.00603202730311</v>
+        <v>20.00603202730312</v>
       </c>
       <c r="G30" t="n">
-        <v>131.1728148955414</v>
+        <v>131.1728148955413</v>
       </c>
       <c r="H30" t="n">
-        <v>9.740532435129131</v>
+        <v>9.740532435129138</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2905,28 +2905,28 @@
         <v>13.89068101942091</v>
       </c>
       <c r="O30" t="n">
-        <v>45.79585211816374</v>
+        <v>45.79585211816375</v>
       </c>
       <c r="P30" t="n">
-        <v>13.90479568565148</v>
+        <v>13.90479568565149</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.004780155331004412</v>
+        <v>0.00478015533100447</v>
       </c>
       <c r="R30" t="n">
-        <v>0.06480712217443503</v>
+        <v>0.06480712217444538</v>
       </c>
       <c r="S30" t="n">
-        <v>0.04483308348098225</v>
+        <v>0.04483308348098763</v>
       </c>
       <c r="T30" t="n">
-        <v>0.02092857038808286</v>
+        <v>0.02092857038808596</v>
       </c>
       <c r="U30" t="n">
-        <v>0.00958351066554544</v>
+        <v>0.009583510665545475</v>
       </c>
       <c r="V30" t="n">
-        <v>0.00533708719921118</v>
+        <v>0.005337087199215704</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -2934,7 +2934,7 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>0.003049900000000605</v>
+        <v>0.00198449999999184</v>
       </c>
       <c r="Y30" t="n">
         <v>10</v>
@@ -2993,19 +2993,19 @@
         <v>11.32420466418767</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.00430616714093409</v>
+        <v>0.004306167140933838</v>
       </c>
       <c r="R31" t="n">
-        <v>0.03851520203031219</v>
+        <v>0.03851520203030927</v>
       </c>
       <c r="S31" t="n">
-        <v>0.02071323105501498</v>
+        <v>0.02071323105501236</v>
       </c>
       <c r="T31" t="n">
-        <v>0.02925341728210635</v>
+        <v>0.02925341728210578</v>
       </c>
       <c r="U31" t="n">
-        <v>0.010058917024803</v>
+        <v>0.01005891702480297</v>
       </c>
       <c r="V31" t="n">
         <v>0.02204182646368418</v>
@@ -3016,7 +3016,7 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>0.003348600000002477</v>
+        <v>0.002203399999984867</v>
       </c>
       <c r="Y31" t="n">
         <v>9</v>
@@ -3075,19 +3075,19 @@
         <v>16.27795537713992</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.004784754470931954</v>
+        <v>0.004784754470931695</v>
       </c>
       <c r="R32" t="n">
-        <v>0.0584172781966989</v>
+        <v>0.0584172781966916</v>
       </c>
       <c r="S32" t="n">
-        <v>0.04006948021538938</v>
+        <v>0.04006948021538415</v>
       </c>
       <c r="T32" t="n">
-        <v>0.02109605081766969</v>
+        <v>0.02109605081766948</v>
       </c>
       <c r="U32" t="n">
-        <v>0.009942321687905518</v>
+        <v>0.009942321687905547</v>
       </c>
       <c r="V32" t="n">
         <v>0.0226787030074462</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>0.002444099999998173</v>
+        <v>0.001860499999992271</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -3127,7 +3127,7 @@
         <v>19.9405878080591</v>
       </c>
       <c r="G33" t="n">
-        <v>51.40496204513004</v>
+        <v>51.40496204513003</v>
       </c>
       <c r="H33" t="n">
         <v>14.45476754134795</v>
@@ -3151,28 +3151,28 @@
         <v>31.85401002845563</v>
       </c>
       <c r="O33" t="n">
-        <v>27.63151554325802</v>
+        <v>27.63151554325804</v>
       </c>
       <c r="P33" t="n">
-        <v>31.7678605140051</v>
+        <v>31.76786051400511</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.005471662567842792</v>
+        <v>0.005471662567842842</v>
       </c>
       <c r="R33" t="n">
-        <v>0.08257990948031625</v>
+        <v>0.08257990948031897</v>
       </c>
       <c r="S33" t="n">
-        <v>0.07043711905519122</v>
+        <v>0.07043711905519341</v>
       </c>
       <c r="T33" t="n">
-        <v>0.06427279696027675</v>
+        <v>0.06427279696027796</v>
       </c>
       <c r="U33" t="n">
         <v>0.01025609602091828</v>
       </c>
       <c r="V33" t="n">
-        <v>0.01900936038040342</v>
+        <v>0.01900936038040235</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>0.002221099999999865</v>
+        <v>0.001819499999982099</v>
       </c>
       <c r="Y33" t="n">
         <v>9</v>
@@ -3239,19 +3239,19 @@
         <v>10.5732627699118</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.004374886605297227</v>
+        <v>0.004374886605297631</v>
       </c>
       <c r="R34" t="n">
-        <v>0.0413772029655245</v>
+        <v>0.04137720296552653</v>
       </c>
       <c r="S34" t="n">
-        <v>0.02327136333198113</v>
+        <v>0.02327136333198394</v>
       </c>
       <c r="T34" t="n">
-        <v>0.02172057606920791</v>
+        <v>0.02172057606920856</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01010259214753311</v>
+        <v>0.01010259214753315</v>
       </c>
       <c r="V34" t="n">
         <v>0.0152384609438872</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>0.002934900000006735</v>
+        <v>0.002523499999995238</v>
       </c>
       <c r="Y34" t="n">
         <v>9</v>
@@ -3288,13 +3288,13 @@
         <v>0.0301913108207522</v>
       </c>
       <c r="F35" t="n">
-        <v>19.98291535947521</v>
+        <v>19.9829153594752</v>
       </c>
       <c r="G35" t="n">
-        <v>45.11555672242129</v>
+        <v>45.11555672242128</v>
       </c>
       <c r="H35" t="n">
-        <v>8.255664161376075</v>
+        <v>8.255664161376076</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3321,22 +3321,22 @@
         <v>25.70088606604284</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.005082874056203991</v>
+        <v>0.005082874056204124</v>
       </c>
       <c r="R35" t="n">
-        <v>0.06459688818758294</v>
+        <v>0.06459688818758515</v>
       </c>
       <c r="S35" t="n">
-        <v>0.03826771296774076</v>
+        <v>0.03826771296774337</v>
       </c>
       <c r="T35" t="n">
-        <v>0.06648345794418084</v>
+        <v>0.06648345794418385</v>
       </c>
       <c r="U35" t="n">
-        <v>0.009601530112525462</v>
+        <v>0.009601530112525448</v>
       </c>
       <c r="V35" t="n">
-        <v>0.06583818883205721</v>
+        <v>0.06583818883205692</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>0.001999699999998938</v>
+        <v>0.00164430000000948</v>
       </c>
       <c r="Y35" t="n">
         <v>8</v>
@@ -3370,13 +3370,13 @@
         <v>359.996231584212</v>
       </c>
       <c r="F36" t="n">
-        <v>20.05660131039894</v>
+        <v>20.05660131039895</v>
       </c>
       <c r="G36" t="n">
         <v>7.014932897523773</v>
       </c>
       <c r="H36" t="n">
-        <v>12.27160283402398</v>
+        <v>12.27160283402397</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3403,22 +3403,22 @@
         <v>32.19299835260961</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.004723381638528203</v>
+        <v>0.004723381638528191</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1068010958163652</v>
+        <v>0.1068010958163645</v>
       </c>
       <c r="S36" t="n">
-        <v>0.02073030071829732</v>
+        <v>0.02073030071829751</v>
       </c>
       <c r="T36" t="n">
-        <v>0.1788394769511983</v>
+        <v>0.1788394769511975</v>
       </c>
       <c r="U36" t="n">
-        <v>0.009553507823798884</v>
+        <v>0.009553507823798872</v>
       </c>
       <c r="V36" t="n">
-        <v>0.02679245111949662</v>
+        <v>0.02679245111949734</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>0.001759999999997319</v>
+        <v>0.001454999999992879</v>
       </c>
       <c r="Y36" t="n">
         <v>7</v>
@@ -3455,7 +3455,7 @@
         <v>20.02513770047101</v>
       </c>
       <c r="G37" t="n">
-        <v>82.56535581178187</v>
+        <v>82.56535581178186</v>
       </c>
       <c r="H37" t="n">
         <v>6.714763353936037</v>
@@ -3479,28 +3479,28 @@
         <v>20.58139294425217</v>
       </c>
       <c r="O37" t="n">
-        <v>26.39621900246448</v>
+        <v>26.39621900246449</v>
       </c>
       <c r="P37" t="n">
         <v>20.59903778618309</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.004951994847662108</v>
+        <v>0.004951994847662213</v>
       </c>
       <c r="R37" t="n">
-        <v>0.06007516972939116</v>
+        <v>0.06007516972939269</v>
       </c>
       <c r="S37" t="n">
-        <v>0.04016264214388231</v>
+        <v>0.04016264214388394</v>
       </c>
       <c r="T37" t="n">
-        <v>0.03763201394966952</v>
+        <v>0.03763201394967037</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01043665074907963</v>
+        <v>0.01043665074907968</v>
       </c>
       <c r="V37" t="n">
-        <v>0.01675277727309377</v>
+        <v>0.01675277727309306</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>0.002225100000003977</v>
+        <v>0.001801099999994449</v>
       </c>
       <c r="Y37" t="n">
         <v>9</v>
@@ -3534,13 +3534,13 @@
         <v>0.01029882269782769</v>
       </c>
       <c r="F38" t="n">
-        <v>19.93666616353306</v>
+        <v>19.93666616353305</v>
       </c>
       <c r="G38" t="n">
         <v>131.2255448361461</v>
       </c>
       <c r="H38" t="n">
-        <v>10.17518336521526</v>
+        <v>10.17518336521525</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3564,25 +3564,25 @@
         <v>48.16098360907379</v>
       </c>
       <c r="P38" t="n">
-        <v>13.9024128756186</v>
+        <v>13.90241287561859</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.004775132745049348</v>
+        <v>0.004775132745049781</v>
       </c>
       <c r="R38" t="n">
-        <v>0.06697830216593553</v>
+        <v>0.06697830216594675</v>
       </c>
       <c r="S38" t="n">
-        <v>0.04708537697922906</v>
+        <v>0.04708537697923725</v>
       </c>
       <c r="T38" t="n">
-        <v>0.02265185311200446</v>
+        <v>0.02265185311200678</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01105614955489318</v>
+        <v>0.01105614955489317</v>
       </c>
       <c r="V38" t="n">
-        <v>0.02166516931429455</v>
+        <v>0.02166516931429691</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>0.003375800000000595</v>
+        <v>0.002904300000011517</v>
       </c>
       <c r="Y38" t="n">
         <v>15</v>
@@ -3646,25 +3646,25 @@
         <v>22.1774606217416</v>
       </c>
       <c r="P39" t="n">
-        <v>7.906003910534293</v>
+        <v>7.906003910534289</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.004007678273821304</v>
+        <v>0.004007678273821484</v>
       </c>
       <c r="R39" t="n">
-        <v>0.03061490288720628</v>
+        <v>0.03061490288720515</v>
       </c>
       <c r="S39" t="n">
-        <v>0.01586048571365545</v>
+        <v>0.01586048571365589</v>
       </c>
       <c r="T39" t="n">
-        <v>0.02567759428985561</v>
+        <v>0.025677594289857</v>
       </c>
       <c r="U39" t="n">
-        <v>0.009655178721352868</v>
+        <v>0.009655178721352901</v>
       </c>
       <c r="V39" t="n">
-        <v>0.03032375907293587</v>
+        <v>0.03032375907293493</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>0.002223300000004258</v>
+        <v>0.001776400000011336</v>
       </c>
       <c r="Y39" t="n">
         <v>9</v>
@@ -3701,7 +3701,7 @@
         <v>20.04408676165302</v>
       </c>
       <c r="G40" t="n">
-        <v>69.26628684723322</v>
+        <v>69.26628684723323</v>
       </c>
       <c r="H40" t="n">
         <v>13.3667693929692</v>
@@ -3728,25 +3728,25 @@
         <v>34.97458945421475</v>
       </c>
       <c r="P40" t="n">
-        <v>28.19886720271591</v>
+        <v>28.1988672027159</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.005399176585726913</v>
+        <v>0.005399176585726572</v>
       </c>
       <c r="R40" t="n">
-        <v>0.08315642886170695</v>
+        <v>0.08315642886170151</v>
       </c>
       <c r="S40" t="n">
-        <v>0.07631947647051981</v>
+        <v>0.07631947647051222</v>
       </c>
       <c r="T40" t="n">
-        <v>0.04032980856694741</v>
+        <v>0.04032980856694318</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0106268286661475</v>
+        <v>0.01062682866614749</v>
       </c>
       <c r="V40" t="n">
-        <v>0.01640661752951242</v>
+        <v>0.0164066175295115</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -3754,7 +3754,7 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>0.00244119999999981</v>
+        <v>0.001973899999995865</v>
       </c>
       <c r="Y40" t="n">
         <v>10</v>
@@ -3810,25 +3810,25 @@
         <v>46.69336272419989</v>
       </c>
       <c r="P41" t="n">
-        <v>22.04838156900346</v>
+        <v>22.04838156900347</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.005139726951247733</v>
+        <v>0.005139726951247881</v>
       </c>
       <c r="R41" t="n">
-        <v>0.08286252028976115</v>
+        <v>0.08286252028976294</v>
       </c>
       <c r="S41" t="n">
-        <v>0.07587686867958181</v>
+        <v>0.07587686867958432</v>
       </c>
       <c r="T41" t="n">
-        <v>0.01772398173400265</v>
+        <v>0.01772398173400231</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01044794013765585</v>
+        <v>0.01044794013765584</v>
       </c>
       <c r="V41" t="n">
-        <v>0.01645879872136492</v>
+        <v>0.0164587987213643</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>0.006855999999999085</v>
+        <v>0.002248200000025236</v>
       </c>
       <c r="Y41" t="n">
         <v>11</v>
@@ -3862,13 +3862,13 @@
         <v>359.995827271958</v>
       </c>
       <c r="F42" t="n">
-        <v>20.02529723682517</v>
+        <v>20.02529723682516</v>
       </c>
       <c r="G42" t="n">
-        <v>72.54899281515701</v>
+        <v>72.54899281515704</v>
       </c>
       <c r="H42" t="n">
-        <v>3.70571067750545</v>
+        <v>3.705710677505449</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>19.50800399861145</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.004674620844723562</v>
+        <v>0.004674620844723421</v>
       </c>
       <c r="R42" t="n">
-        <v>0.05179871096592224</v>
+        <v>0.05179871096592191</v>
       </c>
       <c r="S42" t="n">
-        <v>0.02565058110313676</v>
+        <v>0.02565058110313561</v>
       </c>
       <c r="T42" t="n">
-        <v>0.05867625025310398</v>
+        <v>0.05867625025310192</v>
       </c>
       <c r="U42" t="n">
-        <v>0.009688276608417513</v>
+        <v>0.009688276608417602</v>
       </c>
       <c r="V42" t="n">
-        <v>0.05963261763034333</v>
+        <v>0.05963261763034169</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>0.00206190000000106</v>
+        <v>0.002218099999993228</v>
       </c>
       <c r="Y42" t="n">
         <v>8</v>
@@ -3947,10 +3947,10 @@
         <v>19.99208208438722</v>
       </c>
       <c r="G43" t="n">
-        <v>46.3623278269158</v>
+        <v>46.36232782691577</v>
       </c>
       <c r="H43" t="n">
-        <v>3.425340732134898</v>
+        <v>3.425340732134901</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3974,25 +3974,25 @@
         <v>11.6133424793258</v>
       </c>
       <c r="P43" t="n">
-        <v>20.63471830736983</v>
+        <v>20.63471830736984</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.004557046177927602</v>
+        <v>0.004557046177927547</v>
       </c>
       <c r="R43" t="n">
-        <v>0.05573632753746615</v>
+        <v>0.05573632753746564</v>
       </c>
       <c r="S43" t="n">
-        <v>0.02151299334174425</v>
+        <v>0.02151299334174362</v>
       </c>
       <c r="T43" t="n">
-        <v>0.07873295424268195</v>
+        <v>0.07873295424268055</v>
       </c>
       <c r="U43" t="n">
         <v>0.01001988393109403</v>
       </c>
       <c r="V43" t="n">
-        <v>0.1369337327936271</v>
+        <v>0.1369337327936233</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -4000,7 +4000,7 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>0.003468100000006302</v>
+        <v>0.001705399999991641</v>
       </c>
       <c r="Y43" t="n">
         <v>8</v>
@@ -4056,25 +4056,25 @@
         <v>35.5084523661402</v>
       </c>
       <c r="P44" t="n">
-        <v>29.42055301674821</v>
+        <v>29.4205530167482</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.00541909799028411</v>
+        <v>0.005419097990284111</v>
       </c>
       <c r="R44" t="n">
-        <v>0.08596368122435251</v>
+        <v>0.08596368122435338</v>
       </c>
       <c r="S44" t="n">
-        <v>0.08190692338467782</v>
+        <v>0.08190692338467821</v>
       </c>
       <c r="T44" t="n">
-        <v>0.04285529750097081</v>
+        <v>0.04285529750097045</v>
       </c>
       <c r="U44" t="n">
-        <v>0.009374812279054338</v>
+        <v>0.009374812279054378</v>
       </c>
       <c r="V44" t="n">
-        <v>0.02255756596330243</v>
+        <v>0.02255756596330283</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>0.002718800000003796</v>
+        <v>0.002089100000006283</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -4111,10 +4111,10 @@
         <v>19.93753439952341</v>
       </c>
       <c r="G45" t="n">
-        <v>20.56915297174836</v>
+        <v>20.56915297174837</v>
       </c>
       <c r="H45" t="n">
-        <v>10.37714835004239</v>
+        <v>10.37714835004238</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,25 +4138,25 @@
         <v>10.82787707359393</v>
       </c>
       <c r="P45" t="n">
-        <v>29.50519481476659</v>
+        <v>29.50519481476658</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.005026606901954971</v>
+        <v>0.00502660690195507</v>
       </c>
       <c r="R45" t="n">
-        <v>0.0737953347447014</v>
+        <v>0.07379533474470031</v>
       </c>
       <c r="S45" t="n">
-        <v>0.02963923256675022</v>
+        <v>0.02963923256675053</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1099488103307247</v>
+        <v>0.1099488103307277</v>
       </c>
       <c r="U45" t="n">
-        <v>0.009778490552995322</v>
+        <v>0.009778490552995326</v>
       </c>
       <c r="V45" t="n">
-        <v>0.02483818032412214</v>
+        <v>0.02483818032411973</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -4164,7 +4164,7 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>0.001956900000003259</v>
+        <v>0.001720000000005939</v>
       </c>
       <c r="Y45" t="n">
         <v>8</v>
@@ -4196,7 +4196,7 @@
         <v>150.2060700336143</v>
       </c>
       <c r="H46" t="n">
-        <v>4.285621733061112</v>
+        <v>4.285621733061115</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4223,22 +4223,22 @@
         <v>13.53651988833468</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.004262269945539764</v>
+        <v>0.004262269945539679</v>
       </c>
       <c r="R46" t="n">
-        <v>0.04011717203594571</v>
+        <v>0.04011717203594503</v>
       </c>
       <c r="S46" t="n">
-        <v>0.01842552893600428</v>
+        <v>0.01842552893600416</v>
       </c>
       <c r="T46" t="n">
-        <v>0.04664728195737759</v>
+        <v>0.04664728195737596</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009976385029994124</v>
+        <v>0.009976385029994076</v>
       </c>
       <c r="V46" t="n">
-        <v>0.03099524578496114</v>
+        <v>0.03099524578496129</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>0.002017399999999725</v>
+        <v>0.001676600000024564</v>
       </c>
       <c r="Y46" t="n">
         <v>8</v>
@@ -4299,25 +4299,25 @@
         <v>6.082586648846124</v>
       </c>
       <c r="O47" t="n">
-        <v>14.93026805883351</v>
+        <v>14.93026805883352</v>
       </c>
       <c r="P47" t="n">
         <v>6.040246266159825</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.003455445682244542</v>
+        <v>0.003455445682244628</v>
       </c>
       <c r="R47" t="n">
-        <v>0.02540316176557775</v>
+        <v>0.02540316176557748</v>
       </c>
       <c r="S47" t="n">
-        <v>0.009945266179047882</v>
+        <v>0.009945266179048229</v>
       </c>
       <c r="T47" t="n">
-        <v>0.03388388087351309</v>
+        <v>0.0338838808735145</v>
       </c>
       <c r="U47" t="n">
-        <v>0.009436493586022556</v>
+        <v>0.009436493586022585</v>
       </c>
       <c r="V47" t="n">
         <v>0.02213285852512892</v>
@@ -4328,7 +4328,7 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>0.001989500000000533</v>
+        <v>0.002065000000015971</v>
       </c>
       <c r="Y47" t="n">
         <v>8</v>
@@ -4354,7 +4354,7 @@
         <v>0.005459900357928304</v>
       </c>
       <c r="F48" t="n">
-        <v>19.99380585944559</v>
+        <v>19.99380585944558</v>
       </c>
       <c r="G48" t="n">
         <v>141.1540311491103</v>
@@ -4384,25 +4384,25 @@
         <v>50.85448484134837</v>
       </c>
       <c r="P48" t="n">
-        <v>11.81287024829893</v>
+        <v>11.81287024829892</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.004728067487036574</v>
+        <v>0.004728067487035916</v>
       </c>
       <c r="R48" t="n">
-        <v>0.06626333075298731</v>
+        <v>0.06626333075295762</v>
       </c>
       <c r="S48" t="n">
-        <v>0.04311391163889838</v>
+        <v>0.04311391163888102</v>
       </c>
       <c r="T48" t="n">
-        <v>0.02670536582493453</v>
+        <v>0.0267053658249234</v>
       </c>
       <c r="U48" t="n">
-        <v>0.01030484729875972</v>
+        <v>0.01030484729875971</v>
       </c>
       <c r="V48" t="n">
-        <v>0.006541938124160887</v>
+        <v>0.006541938124161556</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>0.00437369999999504</v>
+        <v>0.003304799999995112</v>
       </c>
       <c r="Y48" t="n">
         <v>18</v>
@@ -4469,22 +4469,22 @@
         <v>34.68039402665423</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.005370578925389389</v>
+        <v>0.005370578925389476</v>
       </c>
       <c r="R49" t="n">
-        <v>0.08265840240396555</v>
+        <v>0.08265840240396698</v>
       </c>
       <c r="S49" t="n">
-        <v>0.03908350970941842</v>
+        <v>0.03908350970941993</v>
       </c>
       <c r="T49" t="n">
-        <v>0.120718087663196</v>
+        <v>0.1207180876631995</v>
       </c>
       <c r="U49" t="n">
-        <v>0.009958097339437547</v>
+        <v>0.009958097339437543</v>
       </c>
       <c r="V49" t="n">
-        <v>0.008280343782358937</v>
+        <v>0.008280343782358635</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>0.002002199999999732</v>
+        <v>0.001698199999992767</v>
       </c>
       <c r="Y49" t="n">
         <v>8</v>
@@ -4548,25 +4548,25 @@
         <v>3.497153875768862</v>
       </c>
       <c r="P50" t="n">
-        <v>33.82838128879805</v>
+        <v>33.82838128879804</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.004457938775948674</v>
+        <v>0.004457938775948634</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1367872379972962</v>
+        <v>0.1367872379972956</v>
       </c>
       <c r="S50" t="n">
-        <v>0.01746844904894043</v>
+        <v>0.01746844904894028</v>
       </c>
       <c r="T50" t="n">
-        <v>0.2263028888990066</v>
+        <v>0.2263028888990041</v>
       </c>
       <c r="U50" t="n">
-        <v>0.01018743107401208</v>
+        <v>0.01018743107401206</v>
       </c>
       <c r="V50" t="n">
-        <v>0.01794150628745874</v>
+        <v>0.01794150628745909</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>0.001716800000004071</v>
+        <v>0.001506299999988414</v>
       </c>
       <c r="Y50" t="n">
         <v>7</v>
@@ -4600,10 +4600,10 @@
         <v>359.9963430639684</v>
       </c>
       <c r="F51" t="n">
-        <v>19.9368666236587</v>
+        <v>19.93686662365871</v>
       </c>
       <c r="G51" t="n">
-        <v>53.93774787662412</v>
+        <v>53.93774787662413</v>
       </c>
       <c r="H51" t="n">
         <v>5.964244610690042</v>
@@ -4633,22 +4633,22 @@
         <v>22.62888798365029</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.004894922136442653</v>
+        <v>0.004894922136442597</v>
       </c>
       <c r="R51" t="n">
-        <v>0.05811955607380111</v>
+        <v>0.05811955607380214</v>
       </c>
       <c r="S51" t="n">
-        <v>0.03221986863311761</v>
+        <v>0.0322198686331179</v>
       </c>
       <c r="T51" t="n">
-        <v>0.06051014977017503</v>
+        <v>0.06051014977017426</v>
       </c>
       <c r="U51" t="n">
-        <v>0.009102496399822144</v>
+        <v>0.009102496399822149</v>
       </c>
       <c r="V51" t="n">
-        <v>0.01306540235792462</v>
+        <v>0.01306540235792399</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>0.002410700000005761</v>
+        <v>0.001631600000024491</v>
       </c>
       <c r="Y51" t="n">
         <v>8</v>
@@ -4682,13 +4682,13 @@
         <v>359.9975628092136</v>
       </c>
       <c r="F52" t="n">
-        <v>19.99630838239095</v>
+        <v>19.99630838239096</v>
       </c>
       <c r="G52" t="n">
-        <v>88.83350479657888</v>
+        <v>88.83350479657892</v>
       </c>
       <c r="H52" t="n">
-        <v>5.748090576934675</v>
+        <v>5.748090576934674</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4712,25 +4712,25 @@
         <v>24.72000851545266</v>
       </c>
       <c r="P52" t="n">
-        <v>19.28786551495456</v>
+        <v>19.28786551495455</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.004848972132415105</v>
+        <v>0.004848972132415389</v>
       </c>
       <c r="R52" t="n">
-        <v>0.05602603077107791</v>
+        <v>0.05602603077108211</v>
       </c>
       <c r="S52" t="n">
-        <v>0.03539687447954073</v>
+        <v>0.03539687447954489</v>
       </c>
       <c r="T52" t="n">
-        <v>0.03816688562268711</v>
+        <v>0.03816688562268926</v>
       </c>
       <c r="U52" t="n">
-        <v>0.009803747527944572</v>
+        <v>0.009803747527944568</v>
       </c>
       <c r="V52" t="n">
-        <v>0.01361598969499244</v>
+        <v>0.01361598969499032</v>
       </c>
       <c r="W52" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>0.002186999999999273</v>
+        <v>0.001737600000012662</v>
       </c>
       <c r="Y52" t="n">
         <v>9</v>
@@ -4770,7 +4770,7 @@
         <v>120.6420435611632</v>
       </c>
       <c r="H53" t="n">
-        <v>3.506760363109602</v>
+        <v>3.506760363109603</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4797,22 +4797,22 @@
         <v>15.93489316431311</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.004468756499568445</v>
+        <v>0.004468756499568227</v>
       </c>
       <c r="R53" t="n">
-        <v>0.04482849021872392</v>
+        <v>0.04482849021872469</v>
       </c>
       <c r="S53" t="n">
-        <v>0.02248593748427944</v>
+        <v>0.02248593748427875</v>
       </c>
       <c r="T53" t="n">
-        <v>0.04722122932562828</v>
+        <v>0.04722122932562564</v>
       </c>
       <c r="U53" t="n">
-        <v>0.009732188910065732</v>
+        <v>0.009732188910065716</v>
       </c>
       <c r="V53" t="n">
-        <v>0.054732867921843</v>
+        <v>0.05473286792184076</v>
       </c>
       <c r="W53" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>0.003501199999995208</v>
+        <v>0.001676699999990205</v>
       </c>
       <c r="Y53" t="n">
         <v>8</v>
@@ -4852,7 +4852,7 @@
         <v>147.0629976210766</v>
       </c>
       <c r="H54" t="n">
-        <v>3.281022816280895</v>
+        <v>3.281022816280896</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4879,22 +4879,22 @@
         <v>14.52293263845618</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.00420241256739739</v>
+        <v>0.004202412567397537</v>
       </c>
       <c r="R54" t="n">
-        <v>0.04277026040009904</v>
+        <v>0.04277026040009877</v>
       </c>
       <c r="S54" t="n">
-        <v>0.01707031698957938</v>
+        <v>0.01707031698957981</v>
       </c>
       <c r="T54" t="n">
-        <v>0.05698739673278672</v>
+        <v>0.05698739673278924</v>
       </c>
       <c r="U54" t="n">
-        <v>0.009234420412689291</v>
+        <v>0.009234420412689315</v>
       </c>
       <c r="V54" t="n">
-        <v>0.07312955675266597</v>
+        <v>0.07312955675266551</v>
       </c>
       <c r="W54" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>0.002005699999998001</v>
+        <v>0.001687900000007403</v>
       </c>
       <c r="Y54" t="n">
         <v>8</v>
@@ -4934,7 +4934,7 @@
         <v>152.3254757018815</v>
       </c>
       <c r="H55" t="n">
-        <v>9.734665691343341</v>
+        <v>9.73466569134334</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4958,25 +4958,25 @@
         <v>43.11137321728074</v>
       </c>
       <c r="P55" t="n">
-        <v>9.646900881071819</v>
+        <v>9.646900881071817</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.004559965205525024</v>
+        <v>0.004559965205525616</v>
       </c>
       <c r="R55" t="n">
-        <v>0.05401677789079454</v>
+        <v>0.05401677789080787</v>
       </c>
       <c r="S55" t="n">
-        <v>0.03125571062894015</v>
+        <v>0.03125571062894775</v>
       </c>
       <c r="T55" t="n">
-        <v>0.020618578815904</v>
+        <v>0.02061857881590734</v>
       </c>
       <c r="U55" t="n">
-        <v>0.01121904254128128</v>
+        <v>0.01121904254128123</v>
       </c>
       <c r="V55" t="n">
-        <v>0.005602400077167482</v>
+        <v>0.005602400077166718</v>
       </c>
       <c r="W55" t="inlineStr">
         <is>
@@ -4984,7 +4984,7 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>0.002982899999999233</v>
+        <v>0.002629800000022442</v>
       </c>
       <c r="Y55" t="n">
         <v>13</v>
@@ -5043,19 +5043,19 @@
         <v>21.69552988320946</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.004978722079132792</v>
+        <v>0.004978722079133089</v>
       </c>
       <c r="R56" t="n">
-        <v>0.06177146994180249</v>
+        <v>0.06177146994180748</v>
       </c>
       <c r="S56" t="n">
-        <v>0.04236988575466415</v>
+        <v>0.042369885754669</v>
       </c>
       <c r="T56" t="n">
-        <v>0.03974188267036923</v>
+        <v>0.03974188267037209</v>
       </c>
       <c r="U56" t="n">
-        <v>0.009836809784038072</v>
+        <v>0.009836809784038097</v>
       </c>
       <c r="V56" t="n">
         <v>0.04741323281239193</v>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>0.002218399999996734</v>
+        <v>0.001948499999997466</v>
       </c>
       <c r="Y56" t="n">
         <v>9</v>
@@ -5092,7 +5092,7 @@
         <v>359.9903931848638</v>
       </c>
       <c r="F57" t="n">
-        <v>20.02428908508548</v>
+        <v>20.02428908508549</v>
       </c>
       <c r="G57" t="n">
         <v>16.77727446901908</v>
@@ -5122,25 +5122,25 @@
         <v>10.35087086509979</v>
       </c>
       <c r="P57" t="n">
-        <v>34.91043326304879</v>
+        <v>34.91043326304882</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.005296863915695932</v>
+        <v>0.005296863915696026</v>
       </c>
       <c r="R57" t="n">
-        <v>0.0856494558588537</v>
+        <v>0.08564945585885214</v>
       </c>
       <c r="S57" t="n">
-        <v>0.03486984679476507</v>
+        <v>0.0348698467947649</v>
       </c>
       <c r="T57" t="n">
-        <v>0.1330106183458094</v>
+        <v>0.1330106183458114</v>
       </c>
       <c r="U57" t="n">
-        <v>0.009771208215163299</v>
+        <v>0.00977120821516328</v>
       </c>
       <c r="V57" t="n">
-        <v>0.02310280811531772</v>
+        <v>0.02310280811531965</v>
       </c>
       <c r="W57" t="inlineStr">
         <is>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>0.001969199999997784</v>
+        <v>0.001644499999997606</v>
       </c>
       <c r="Y57" t="n">
         <v>8</v>
@@ -5180,7 +5180,7 @@
         <v>177.0498058753785</v>
       </c>
       <c r="H58" t="n">
-        <v>6.979749392498902</v>
+        <v>6.979749392498903</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -5207,22 +5207,22 @@
         <v>9.172318738260476</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.003502887683847381</v>
+        <v>0.003502887683847426</v>
       </c>
       <c r="R58" t="n">
-        <v>0.03673847526086393</v>
+        <v>0.03673847526086472</v>
       </c>
       <c r="S58" t="n">
-        <v>0.009969796944894813</v>
+        <v>0.009969796944895033</v>
       </c>
       <c r="T58" t="n">
-        <v>0.05282153230630144</v>
+        <v>0.05282153230630312</v>
       </c>
       <c r="U58" t="n">
-        <v>0.009589087846811574</v>
+        <v>0.009589087846811544</v>
       </c>
       <c r="V58" t="n">
-        <v>0.02369802683634309</v>
+        <v>0.02369802683634277</v>
       </c>
       <c r="W58" t="inlineStr">
         <is>
@@ -5230,7 +5230,7 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>0.002035700000000418</v>
+        <v>0.001670599999982869</v>
       </c>
       <c r="Y58" t="n">
         <v>8</v>
@@ -5262,7 +5262,7 @@
         <v>15.33957431789594</v>
       </c>
       <c r="H59" t="n">
-        <v>5.965514386611025</v>
+        <v>5.965514386611023</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -5289,22 +5289,22 @@
         <v>24.37057820512074</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.004454165970343079</v>
+        <v>0.004454165970343157</v>
       </c>
       <c r="R59" t="n">
-        <v>0.07468967473886906</v>
+        <v>0.07468967473886966</v>
       </c>
       <c r="S59" t="n">
-        <v>0.01865668231407855</v>
+        <v>0.01865668231407862</v>
       </c>
       <c r="T59" t="n">
-        <v>0.1196664072713821</v>
+        <v>0.1196664072713846</v>
       </c>
       <c r="U59" t="n">
-        <v>0.01090805368336858</v>
+        <v>0.01090805368336863</v>
       </c>
       <c r="V59" t="n">
-        <v>0.1061598702683999</v>
+        <v>0.1061598702683991</v>
       </c>
       <c r="W59" t="inlineStr">
         <is>
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>0.001744099999996251</v>
+        <v>0.001884099999983846</v>
       </c>
       <c r="Y59" t="n">
         <v>7</v>
@@ -5338,13 +5338,13 @@
         <v>359.9958931781127</v>
       </c>
       <c r="F60" t="n">
-        <v>19.86728029512947</v>
+        <v>19.86728029512949</v>
       </c>
       <c r="G60" t="n">
         <v>65.39161360386466</v>
       </c>
       <c r="H60" t="n">
-        <v>8.384545578713965</v>
+        <v>8.38454557871397</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5365,28 +5365,28 @@
         <v>23.90445332822715</v>
       </c>
       <c r="O60" t="n">
-        <v>25.69559153040199</v>
+        <v>25.69559153040201</v>
       </c>
       <c r="P60" t="n">
-        <v>23.79358559284877</v>
+        <v>23.79358559284878</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.005075073035946482</v>
+        <v>0.005075073035946375</v>
       </c>
       <c r="R60" t="n">
-        <v>0.06506619475191418</v>
+        <v>0.0650661947519075</v>
       </c>
       <c r="S60" t="n">
-        <v>0.04586377500000296</v>
+        <v>0.04586377499999802</v>
       </c>
       <c r="T60" t="n">
-        <v>0.04549771409023371</v>
+        <v>0.04549771409023221</v>
       </c>
       <c r="U60" t="n">
-        <v>0.009417609659181836</v>
+        <v>0.009417609659181828</v>
       </c>
       <c r="V60" t="n">
-        <v>0.03137488493702676</v>
+        <v>0.03137488493701733</v>
       </c>
       <c r="W60" t="inlineStr">
         <is>
@@ -5394,7 +5394,7 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>0.002241800000000183</v>
+        <v>0.001736300000004576</v>
       </c>
       <c r="Y60" t="n">
         <v>8</v>
@@ -5417,7 +5417,7 @@
         <v>4.894446966417504</v>
       </c>
       <c r="E61" t="n">
-        <v>0.008680868790529605</v>
+        <v>0.008680868790516884</v>
       </c>
       <c r="F61" t="n">
         <v>19.96961138604229</v>
@@ -5426,7 +5426,7 @@
         <v>166.5890287676076</v>
       </c>
       <c r="H61" t="n">
-        <v>4.913703971027545</v>
+        <v>4.913703971027543</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5450,25 +5450,25 @@
         <v>12.33776329309711</v>
       </c>
       <c r="P61" t="n">
-        <v>11.89224309786855</v>
+        <v>11.89224309786856</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.00391969026801529</v>
+        <v>0.003919690268015294</v>
       </c>
       <c r="R61" t="n">
-        <v>0.03830765300512886</v>
+        <v>0.03830765300512828</v>
       </c>
       <c r="S61" t="n">
-        <v>0.01385014573461456</v>
+        <v>0.01385014573461475</v>
       </c>
       <c r="T61" t="n">
-        <v>0.0532561756339404</v>
+        <v>0.05325617563394006</v>
       </c>
       <c r="U61" t="n">
         <v>0.01004456285338045</v>
       </c>
       <c r="V61" t="n">
-        <v>0.03067506559252283</v>
+        <v>0.03067506559252167</v>
       </c>
       <c r="W61" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>0.001995200000003194</v>
+        <v>0.001632099999994807</v>
       </c>
       <c r="Y61" t="n">
         <v>8</v>
@@ -5505,10 +5505,10 @@
         <v>20.08818413823728</v>
       </c>
       <c r="G62" t="n">
-        <v>54.11562014288055</v>
+        <v>54.11562014288057</v>
       </c>
       <c r="H62" t="n">
-        <v>5.302009268367687</v>
+        <v>5.302009268367688</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5529,28 +5529,28 @@
         <v>21.9814878807647</v>
       </c>
       <c r="O62" t="n">
-        <v>16.60207725425254</v>
+        <v>16.60207725425255</v>
       </c>
       <c r="P62" t="n">
         <v>22.12343503288236</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.004862831727165293</v>
+        <v>0.004862831727165086</v>
       </c>
       <c r="R62" t="n">
-        <v>0.05725859551886141</v>
+        <v>0.0572585955188603</v>
       </c>
       <c r="S62" t="n">
-        <v>0.02985362232636104</v>
+        <v>0.02985362232635932</v>
       </c>
       <c r="T62" t="n">
-        <v>0.06331737301758471</v>
+        <v>0.06331737301758152</v>
       </c>
       <c r="U62" t="n">
-        <v>0.01070882224136978</v>
+        <v>0.0107088222413698</v>
       </c>
       <c r="V62" t="n">
-        <v>0.04635664154637727</v>
+        <v>0.04635664154637796</v>
       </c>
       <c r="W62" t="inlineStr">
         <is>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>0.001995000000000857</v>
+        <v>0.001747099999988677</v>
       </c>
       <c r="Y62" t="n">
         <v>8</v>
@@ -5584,13 +5584,13 @@
         <v>0.005375832512637202</v>
       </c>
       <c r="F63" t="n">
-        <v>20.04362597739838</v>
+        <v>20.04362597739839</v>
       </c>
       <c r="G63" t="n">
         <v>148.3123641372711</v>
       </c>
       <c r="H63" t="n">
-        <v>5.188629441126318</v>
+        <v>5.188629441126317</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5617,22 +5617,22 @@
         <v>12.91724154522532</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.004348597140155173</v>
+        <v>0.004348597140155086</v>
       </c>
       <c r="R63" t="n">
-        <v>0.04010263531252218</v>
+        <v>0.04010263531252192</v>
       </c>
       <c r="S63" t="n">
-        <v>0.02089193709345563</v>
+        <v>0.02089193709345522</v>
       </c>
       <c r="T63" t="n">
-        <v>0.0362378883595987</v>
+        <v>0.03623788835959805</v>
       </c>
       <c r="U63" t="n">
-        <v>0.01031255454632947</v>
+        <v>0.01031255454632949</v>
       </c>
       <c r="V63" t="n">
-        <v>0.01870848428158865</v>
+        <v>0.01870848428158868</v>
       </c>
       <c r="W63" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>0.002057499999999379</v>
+        <v>0.001721799999984341</v>
       </c>
       <c r="Y63" t="n">
         <v>8</v>
@@ -5669,10 +5669,10 @@
         <v>20.13287516796554</v>
       </c>
       <c r="G64" t="n">
-        <v>6.154187253766563</v>
+        <v>6.154187253766576</v>
       </c>
       <c r="H64" t="n">
-        <v>8.744394371852247</v>
+        <v>8.744394371852245</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5699,22 +5699,22 @@
         <v>28.04363901298841</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.00441446739909333</v>
+        <v>0.004414467399093364</v>
       </c>
       <c r="R64" t="n">
-        <v>0.1035708843429734</v>
+        <v>0.1035708843429743</v>
       </c>
       <c r="S64" t="n">
-        <v>0.01695912153788578</v>
+        <v>0.01695912153788577</v>
       </c>
       <c r="T64" t="n">
-        <v>0.1691431156478282</v>
+        <v>0.1691431156478295</v>
       </c>
       <c r="U64" t="n">
-        <v>0.008939631238630324</v>
+        <v>0.008939631238630322</v>
       </c>
       <c r="V64" t="n">
-        <v>0.03955141683588789</v>
+        <v>0.03955141683588909</v>
       </c>
       <c r="W64" t="inlineStr">
         <is>
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>0.001786899999999036</v>
+        <v>0.001495600000026798</v>
       </c>
       <c r="Y64" t="n">
         <v>7</v>
@@ -5748,13 +5748,13 @@
         <v>359.9957753344062</v>
       </c>
       <c r="F65" t="n">
-        <v>20.03463653355626</v>
+        <v>20.03463653355625</v>
       </c>
       <c r="G65" t="n">
         <v>99.78176783561292</v>
       </c>
       <c r="H65" t="n">
-        <v>7.768994359213926</v>
+        <v>7.768994359213923</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5775,28 +5775,28 @@
         <v>18.89625465573057</v>
       </c>
       <c r="O65" t="n">
-        <v>33.1860999628521</v>
+        <v>33.18609996285211</v>
       </c>
       <c r="P65" t="n">
-        <v>18.92032952003729</v>
+        <v>18.92032952003728</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.00493498460058818</v>
+        <v>0.004934984600588275</v>
       </c>
       <c r="R65" t="n">
-        <v>0.06266463622006323</v>
+        <v>0.0626646362200711</v>
       </c>
       <c r="S65" t="n">
-        <v>0.04496227590233243</v>
+        <v>0.04496227590233749</v>
       </c>
       <c r="T65" t="n">
-        <v>0.02528086146777929</v>
+        <v>0.02528086146777914</v>
       </c>
       <c r="U65" t="n">
-        <v>0.00959572219506253</v>
+        <v>0.009595722195062566</v>
       </c>
       <c r="V65" t="n">
-        <v>0.008512320843446594</v>
+        <v>0.008512320843444821</v>
       </c>
       <c r="W65" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>0.003869700000002751</v>
+        <v>0.001818500000013046</v>
       </c>
       <c r="Y65" t="n">
         <v>9</v>
@@ -5836,7 +5836,7 @@
         <v>68.38082475534286</v>
       </c>
       <c r="H66" t="n">
-        <v>9.770452397456001</v>
+        <v>9.770452397456003</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5863,22 +5863,22 @@
         <v>24.84567215090524</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.005177511780384716</v>
+        <v>0.005177511780384574</v>
       </c>
       <c r="R66" t="n">
-        <v>0.07064189749032589</v>
+        <v>0.07064189749032149</v>
       </c>
       <c r="S66" t="n">
-        <v>0.05424376164607305</v>
+        <v>0.05424376164606957</v>
       </c>
       <c r="T66" t="n">
-        <v>0.04190325543189274</v>
+        <v>0.0419032554318914</v>
       </c>
       <c r="U66" t="n">
         <v>0.01079706251966157</v>
       </c>
       <c r="V66" t="n">
-        <v>0.01548942894501998</v>
+        <v>0.01548942894501953</v>
       </c>
       <c r="W66" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>0.002237300000004439</v>
+        <v>0.001938899999998966</v>
       </c>
       <c r="Y66" t="n">
         <v>9</v>
@@ -5912,7 +5912,7 @@
         <v>0.01413747632599752</v>
       </c>
       <c r="F67" t="n">
-        <v>19.98615880032954</v>
+        <v>19.98615880032953</v>
       </c>
       <c r="G67" t="n">
         <v>39.21605155418749</v>
@@ -5945,19 +5945,19 @@
         <v>20.84355469653337</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.004493630201883369</v>
+        <v>0.00449363020188338</v>
       </c>
       <c r="R67" t="n">
-        <v>0.05806912548020435</v>
+        <v>0.05806912548020414</v>
       </c>
       <c r="S67" t="n">
-        <v>0.02009421152013693</v>
+        <v>0.02009421152013705</v>
       </c>
       <c r="T67" t="n">
-        <v>0.08591071235607785</v>
+        <v>0.08591071235607821</v>
       </c>
       <c r="U67" t="n">
-        <v>0.009921764830786575</v>
+        <v>0.009921764830786571</v>
       </c>
       <c r="V67" t="n">
         <v>0.009124199420430945</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>0.002056299999999567</v>
+        <v>0.001729600000004439</v>
       </c>
       <c r="Y67" t="n">
         <v>8</v>
@@ -5997,10 +5997,10 @@
         <v>19.95067239739801</v>
       </c>
       <c r="G68" t="n">
-        <v>27.8695613585863</v>
+        <v>27.86956135858631</v>
       </c>
       <c r="H68" t="n">
-        <v>4.556735756232252</v>
+        <v>4.556735756232249</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -6027,22 +6027,22 @@
         <v>22.47870144603052</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.004536759491810215</v>
+        <v>0.004536759491810202</v>
       </c>
       <c r="R68" t="n">
-        <v>0.06276608365222876</v>
+        <v>0.0627660836522293</v>
       </c>
       <c r="S68" t="n">
-        <v>0.02051500923395212</v>
+        <v>0.02051500923395182</v>
       </c>
       <c r="T68" t="n">
         <v>0.09538860274073423</v>
       </c>
       <c r="U68" t="n">
-        <v>0.009812666356206109</v>
+        <v>0.009812666356206116</v>
       </c>
       <c r="V68" t="n">
-        <v>0.03866403334673025</v>
+        <v>0.0386640333467317</v>
       </c>
       <c r="W68" t="inlineStr">
         <is>
@@ -6050,7 +6050,7 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>0.002129199999998832</v>
+        <v>0.001663100000001805</v>
       </c>
       <c r="Y68" t="n">
         <v>8</v>
@@ -6082,7 +6082,7 @@
         <v>98.28610287704502</v>
       </c>
       <c r="H69" t="n">
-        <v>13.19446823886431</v>
+        <v>13.19446823886432</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6103,28 +6103,28 @@
         <v>22.71174981430071</v>
       </c>
       <c r="O69" t="n">
-        <v>48.33466467854473</v>
+        <v>48.33466467854472</v>
       </c>
       <c r="P69" t="n">
-        <v>22.55241492163293</v>
+        <v>22.55241492163294</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.005137980152487043</v>
+        <v>0.005137980152486912</v>
       </c>
       <c r="R69" t="n">
-        <v>0.08580630287740587</v>
+        <v>0.085806302877401</v>
       </c>
       <c r="S69" t="n">
-        <v>0.08114263218502921</v>
+        <v>0.081142632185025</v>
       </c>
       <c r="T69" t="n">
-        <v>0.01763373257124642</v>
+        <v>0.01763373257124599</v>
       </c>
       <c r="U69" t="n">
-        <v>0.009748115077178848</v>
+        <v>0.009748115077178833</v>
       </c>
       <c r="V69" t="n">
-        <v>0.03923329136900386</v>
+        <v>0.03923329136900207</v>
       </c>
       <c r="W69" t="inlineStr">
         <is>
@@ -6132,7 +6132,7 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>0.00269320000000306</v>
+        <v>0.002462499999978718</v>
       </c>
       <c r="Y69" t="n">
         <v>11</v>
@@ -6161,10 +6161,10 @@
         <v>19.97495147929692</v>
       </c>
       <c r="G70" t="n">
-        <v>46.86012358354293</v>
+        <v>46.86012358354297</v>
       </c>
       <c r="H70" t="n">
-        <v>3.499328920824742</v>
+        <v>3.49932892082474</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -6191,22 +6191,22 @@
         <v>20.66776070041045</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.004560972151023973</v>
+        <v>0.004560972151023922</v>
       </c>
       <c r="R70" t="n">
-        <v>0.05547783889849722</v>
+        <v>0.05547783889849763</v>
       </c>
       <c r="S70" t="n">
-        <v>0.02178560930729216</v>
+        <v>0.02178560930729203</v>
       </c>
       <c r="T70" t="n">
-        <v>0.07767962695329839</v>
+        <v>0.07767962695329732</v>
       </c>
       <c r="U70" t="n">
-        <v>0.01006115351930196</v>
+        <v>0.01006115351930197</v>
       </c>
       <c r="V70" t="n">
-        <v>0.02472167297829712</v>
+        <v>0.02472167297829941</v>
       </c>
       <c r="W70" t="inlineStr">
         <is>
@@ -6214,7 +6214,7 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>0.002219300000000146</v>
+        <v>0.001708399999984067</v>
       </c>
       <c r="Y70" t="n">
         <v>8</v>
@@ -6240,13 +6240,13 @@
         <v>0.01723851308098073</v>
       </c>
       <c r="F71" t="n">
-        <v>19.83009737014138</v>
+        <v>19.83009737014137</v>
       </c>
       <c r="G71" t="n">
-        <v>53.25748947884009</v>
+        <v>53.2574894788401</v>
       </c>
       <c r="H71" t="n">
-        <v>12.56539773229056</v>
+        <v>12.56539773229054</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -6270,25 +6270,25 @@
         <v>26.81313732729815</v>
       </c>
       <c r="P71" t="n">
-        <v>29.39439270450002</v>
+        <v>29.39439270449999</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.005336834445505471</v>
+        <v>0.005336834445505715</v>
       </c>
       <c r="R71" t="n">
-        <v>0.07666701511769197</v>
+        <v>0.07666701511769933</v>
       </c>
       <c r="S71" t="n">
-        <v>0.06165622056272073</v>
+        <v>0.06165622056272791</v>
       </c>
       <c r="T71" t="n">
-        <v>0.05829263306707059</v>
+        <v>0.058292633067076</v>
       </c>
       <c r="U71" t="n">
-        <v>0.01045598474736789</v>
+        <v>0.01045598474736785</v>
       </c>
       <c r="V71" t="n">
-        <v>0.0516320655031299</v>
+        <v>0.05163206550313484</v>
       </c>
       <c r="W71" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>0.002231099999995934</v>
+        <v>0.001780100000019047</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -6355,19 +6355,19 @@
         <v>5.055594236310416</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.004560466088387798</v>
+        <v>0.004560466088382669</v>
       </c>
       <c r="R72" t="n">
-        <v>0.08315785616765653</v>
+        <v>0.0831578561675098</v>
       </c>
       <c r="S72" t="n">
-        <v>0.03426247035389097</v>
+        <v>0.034262470353832</v>
       </c>
       <c r="T72" t="n">
-        <v>0.05827744178134225</v>
+        <v>0.05827744178123954</v>
       </c>
       <c r="U72" t="n">
-        <v>0.01009141319280905</v>
+        <v>0.01009141319280903</v>
       </c>
       <c r="V72" t="n">
         <v>0.02932360148135013</v>
@@ -6378,7 +6378,7 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>0.006532800000002226</v>
+        <v>0.004401900000004844</v>
       </c>
       <c r="Y72" t="n">
         <v>23</v>
@@ -6410,7 +6410,7 @@
         <v>33.66604810766166</v>
       </c>
       <c r="H73" t="n">
-        <v>7.559499693482207</v>
+        <v>7.559499693482204</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6437,22 +6437,22 @@
         <v>25.73127798476269</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.004973944364261398</v>
+        <v>0.004973944364261484</v>
       </c>
       <c r="R73" t="n">
-        <v>0.06413483668981762</v>
+        <v>0.06413483668981877</v>
       </c>
       <c r="S73" t="n">
-        <v>0.03071441334085886</v>
+        <v>0.03071441334086003</v>
       </c>
       <c r="T73" t="n">
-        <v>0.08249193610195027</v>
+        <v>0.0824919361019525</v>
       </c>
       <c r="U73" t="n">
-        <v>0.009789645861428803</v>
+        <v>0.009789645861428786</v>
       </c>
       <c r="V73" t="n">
-        <v>0.03697950697119554</v>
+        <v>0.03697950697119694</v>
       </c>
       <c r="W73" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>0.002175599999993949</v>
+        <v>0.001652299999989282</v>
       </c>
       <c r="Y73" t="n">
         <v>8</v>
@@ -6486,10 +6486,10 @@
         <v>359.9918949939296</v>
       </c>
       <c r="F74" t="n">
-        <v>19.98601716181739</v>
+        <v>19.9860171618174</v>
       </c>
       <c r="G74" t="n">
-        <v>19.15331690599684</v>
+        <v>19.15331690599685</v>
       </c>
       <c r="H74" t="n">
         <v>11.29539657950501</v>
@@ -6513,28 +6513,28 @@
         <v>30.60511931178456</v>
       </c>
       <c r="O74" t="n">
-        <v>10.54116419863476</v>
+        <v>10.54116419863478</v>
       </c>
       <c r="P74" t="n">
-        <v>30.69177166072357</v>
+        <v>30.69177166072358</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.005084787636562439</v>
+        <v>0.005084787636562485</v>
       </c>
       <c r="R74" t="n">
-        <v>0.07678909694637696</v>
+        <v>0.07678909694637565</v>
       </c>
       <c r="S74" t="n">
-        <v>0.03043223553075304</v>
+        <v>0.03043223553075284</v>
       </c>
       <c r="T74" t="n">
-        <v>0.1160340534551387</v>
+        <v>0.1160340534551405</v>
       </c>
       <c r="U74" t="n">
         <v>0.01009003669093403</v>
       </c>
       <c r="V74" t="n">
-        <v>0.02520735910964709</v>
+        <v>0.02520735910965427</v>
       </c>
       <c r="W74" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>0.003857599999996353</v>
+        <v>0.00168049999999198</v>
       </c>
       <c r="Y74" t="n">
         <v>8</v>
@@ -6568,13 +6568,13 @@
         <v>359.992190270628</v>
       </c>
       <c r="F75" t="n">
-        <v>20.08900219732828</v>
+        <v>20.0890021973283</v>
       </c>
       <c r="G75" t="n">
         <v>115.5966709502534</v>
       </c>
       <c r="H75" t="n">
-        <v>9.527773136302143</v>
+        <v>9.527773136302153</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6598,25 +6598,25 @@
         <v>42.48636832245973</v>
       </c>
       <c r="P75" t="n">
-        <v>16.99540813821233</v>
+        <v>16.99540813821234</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.0049228024378534</v>
+        <v>0.004922802437853148</v>
       </c>
       <c r="R75" t="n">
-        <v>0.06811117461183312</v>
+        <v>0.06811117461183437</v>
       </c>
       <c r="S75" t="n">
-        <v>0.05100205130860509</v>
+        <v>0.05100205130860432</v>
       </c>
       <c r="T75" t="n">
-        <v>0.01857221033366987</v>
+        <v>0.0185722103336705</v>
       </c>
       <c r="U75" t="n">
-        <v>0.009107066028751269</v>
+        <v>0.00910706602875128</v>
       </c>
       <c r="V75" t="n">
-        <v>0.03500271933536207</v>
+        <v>0.0350027193353734</v>
       </c>
       <c r="W75" t="inlineStr">
         <is>
@@ -6624,7 +6624,7 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>0.002278200000006336</v>
+        <v>0.002032499999984339</v>
       </c>
       <c r="Y75" t="n">
         <v>9</v>
@@ -6680,25 +6680,25 @@
         <v>18.81373430018906</v>
       </c>
       <c r="P76" t="n">
-        <v>30.99202027120189</v>
+        <v>30.9920202712019</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.005355133693678833</v>
+        <v>0.005355133693678893</v>
       </c>
       <c r="R76" t="n">
-        <v>0.07495351274816897</v>
+        <v>0.0749535127481657</v>
       </c>
       <c r="S76" t="n">
-        <v>0.04825359484167734</v>
+        <v>0.04825359484167574</v>
       </c>
       <c r="T76" t="n">
         <v>0.08163511353789339</v>
       </c>
       <c r="U76" t="n">
-        <v>0.009105387874899612</v>
+        <v>0.009105387874899668</v>
       </c>
       <c r="V76" t="n">
-        <v>0.00774553755729813</v>
+        <v>0.007745537557295935</v>
       </c>
       <c r="W76" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>0.001814499999994723</v>
+        <v>0.001502700000003188</v>
       </c>
       <c r="Y76" t="n">
         <v>7</v>
@@ -6738,7 +6738,7 @@
         <v>102.0013077503139</v>
       </c>
       <c r="H77" t="n">
-        <v>3.82908683303141</v>
+        <v>3.829086833031408</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6762,25 +6762,25 @@
         <v>18.91817100819486</v>
       </c>
       <c r="P77" t="n">
-        <v>17.45199159830124</v>
+        <v>17.45199159830123</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.00463935727285349</v>
+        <v>0.004639357272853499</v>
       </c>
       <c r="R77" t="n">
-        <v>0.04883630304068561</v>
+        <v>0.04883630304068572</v>
       </c>
       <c r="S77" t="n">
-        <v>0.02603384912281301</v>
+        <v>0.02603384912281318</v>
       </c>
       <c r="T77" t="n">
-        <v>0.04674801628719828</v>
+        <v>0.04674801628719874</v>
       </c>
       <c r="U77" t="n">
-        <v>0.009584705254947682</v>
+        <v>0.009584705254947694</v>
       </c>
       <c r="V77" t="n">
-        <v>0.05256171053838075</v>
+        <v>0.05256171053837895</v>
       </c>
       <c r="W77" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>0.002049700000000598</v>
+        <v>0.001633199999986346</v>
       </c>
       <c r="Y77" t="n">
         <v>8</v>
@@ -6847,19 +6847,19 @@
         <v>29.47428273520886</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.005394256488948423</v>
+        <v>0.005394256488948015</v>
       </c>
       <c r="R78" t="n">
-        <v>0.07880944940310168</v>
+        <v>0.07880944940308963</v>
       </c>
       <c r="S78" t="n">
-        <v>0.06514799310722884</v>
+        <v>0.06514799310721633</v>
       </c>
       <c r="T78" t="n">
-        <v>0.05585928342732454</v>
+        <v>0.0558592834273162</v>
       </c>
       <c r="U78" t="n">
-        <v>0.009534712895586999</v>
+        <v>0.009534712895586991</v>
       </c>
       <c r="V78" t="n">
         <v>0.005819803685070414</v>
@@ -6870,7 +6870,7 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>0.002238400000003082</v>
+        <v>0.002173699999985956</v>
       </c>
       <c r="Y78" t="n">
         <v>9</v>
@@ -6896,7 +6896,7 @@
         <v>0.003131826728945783</v>
       </c>
       <c r="F79" t="n">
-        <v>20.00255502011058</v>
+        <v>20.00255502011057</v>
       </c>
       <c r="G79" t="n">
         <v>165.4241483238863</v>
@@ -6923,28 +6923,28 @@
         <v>6.622093328573639</v>
       </c>
       <c r="O79" t="n">
-        <v>41.63418306624568</v>
+        <v>41.6341830662457</v>
       </c>
       <c r="P79" t="n">
-        <v>6.629041768255044</v>
+        <v>6.62904176825504</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.004404032992982981</v>
+        <v>0.00440403299298303</v>
       </c>
       <c r="R79" t="n">
-        <v>0.04786100622649964</v>
+        <v>0.04786100622649708</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0242141069639625</v>
+        <v>0.02421410696396197</v>
       </c>
       <c r="T79" t="n">
-        <v>0.02016636627149055</v>
+        <v>0.02016636627148915</v>
       </c>
       <c r="U79" t="n">
-        <v>0.009986453657453116</v>
+        <v>0.009986453657453149</v>
       </c>
       <c r="V79" t="n">
-        <v>0.004981169974803309</v>
+        <v>0.004981169974802415</v>
       </c>
       <c r="W79" t="inlineStr">
         <is>
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>0.003150599999997894</v>
+        <v>0.002582999999987123</v>
       </c>
       <c r="Y79" t="n">
         <v>13</v>
@@ -6978,7 +6978,7 @@
         <v>359.9900801952639</v>
       </c>
       <c r="F80" t="n">
-        <v>20.11427115623106</v>
+        <v>20.11427115623107</v>
       </c>
       <c r="G80" t="n">
         <v>8.810302382562572</v>
@@ -7008,25 +7008,25 @@
         <v>5.971066075122223</v>
       </c>
       <c r="P80" t="n">
-        <v>30.82421845317823</v>
+        <v>30.82421845317824</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.004744525041528256</v>
+        <v>0.004744525041528242</v>
       </c>
       <c r="R80" t="n">
-        <v>0.09739512506888179</v>
+        <v>0.09739512506888204</v>
       </c>
       <c r="S80" t="n">
-        <v>0.02127982400420494</v>
+        <v>0.02127982400420479</v>
       </c>
       <c r="T80" t="n">
         <v>0.1619168377243584</v>
       </c>
       <c r="U80" t="n">
-        <v>0.01004327194335795</v>
+        <v>0.01004327194335794</v>
       </c>
       <c r="V80" t="n">
-        <v>0.02712307285343485</v>
+        <v>0.02712307285343523</v>
       </c>
       <c r="W80" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>0.001780400000001237</v>
+        <v>0.001475499999997965</v>
       </c>
       <c r="Y80" t="n">
         <v>7</v>
@@ -7063,10 +7063,10 @@
         <v>20.05331978998004</v>
       </c>
       <c r="G81" t="n">
-        <v>89.74011203257791</v>
+        <v>89.74011203257793</v>
       </c>
       <c r="H81" t="n">
-        <v>8.691606359754136</v>
+        <v>8.691606359754134</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -7090,25 +7090,25 @@
         <v>33.53984046005543</v>
       </c>
       <c r="P81" t="n">
-        <v>20.97687489955599</v>
+        <v>20.97687489955598</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.00505813513833214</v>
+        <v>0.005058135138331998</v>
       </c>
       <c r="R81" t="n">
-        <v>0.06720418724142697</v>
+        <v>0.06720418724141651</v>
       </c>
       <c r="S81" t="n">
-        <v>0.05095009259366304</v>
+        <v>0.05095009259365589</v>
       </c>
       <c r="T81" t="n">
         <v>0.02761538911487403</v>
       </c>
       <c r="U81" t="n">
-        <v>0.009435418120335026</v>
+        <v>0.009435418120335033</v>
       </c>
       <c r="V81" t="n">
-        <v>0.0438040067162572</v>
+        <v>0.04380400671625612</v>
       </c>
       <c r="W81" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>0.003654999999994857</v>
+        <v>0.002434200000010378</v>
       </c>
       <c r="Y81" t="n">
         <v>8</v>
@@ -7175,19 +7175,19 @@
         <v>22.08207843902335</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.005135500709765031</v>
+        <v>0.005135500709764924</v>
       </c>
       <c r="R82" t="n">
-        <v>0.07776987880119506</v>
+        <v>0.07776987880119503</v>
       </c>
       <c r="S82" t="n">
-        <v>0.06776836595203978</v>
+        <v>0.06776836595203858</v>
       </c>
       <c r="T82" t="n">
-        <v>0.01989090698008511</v>
+        <v>0.01989090698008518</v>
       </c>
       <c r="U82" t="n">
-        <v>0.009547881418360105</v>
+        <v>0.009547881418360127</v>
       </c>
       <c r="V82" t="n">
         <v>0.01578735779568469</v>
@@ -7198,7 +7198,7 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>0.002548499999996068</v>
+        <v>0.002043800000024021</v>
       </c>
       <c r="Y82" t="n">
         <v>10</v>
@@ -7254,25 +7254,25 @@
         <v>22.68440892559299</v>
       </c>
       <c r="P83" t="n">
-        <v>22.88979674871898</v>
+        <v>22.88979674871897</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.005028983553053893</v>
+        <v>0.005028983553053987</v>
       </c>
       <c r="R83" t="n">
-        <v>0.06202965791854886</v>
+        <v>0.06202965791855056</v>
       </c>
       <c r="S83" t="n">
-        <v>0.03970134070741114</v>
+        <v>0.03970134070741278</v>
       </c>
       <c r="T83" t="n">
-        <v>0.04955154069440763</v>
+        <v>0.04955154069440901</v>
       </c>
       <c r="U83" t="n">
-        <v>0.01011694389854976</v>
+        <v>0.01011694389854977</v>
       </c>
       <c r="V83" t="n">
-        <v>0.03112827109008991</v>
+        <v>0.03112827109008965</v>
       </c>
       <c r="W83" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>0.002259600000002138</v>
+        <v>0.001653199999992694</v>
       </c>
       <c r="Y83" t="n">
         <v>8</v>
@@ -7306,13 +7306,13 @@
         <v>359.9834365137523</v>
       </c>
       <c r="F84" t="n">
-        <v>19.99363952080099</v>
+        <v>19.99363952080098</v>
       </c>
       <c r="G84" t="n">
         <v>49.34661399214551</v>
       </c>
       <c r="H84" t="n">
-        <v>10.7457745498988</v>
+        <v>10.74577454989879</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -7339,22 +7339,22 @@
         <v>28.00641926555739</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.005280715014502331</v>
+        <v>0.005280715014502288</v>
       </c>
       <c r="R84" t="n">
-        <v>0.07181090589486031</v>
+        <v>0.07181090589485187</v>
       </c>
       <c r="S84" t="n">
-        <v>0.05072388404917554</v>
+        <v>0.05072388404917042</v>
       </c>
       <c r="T84" t="n">
-        <v>0.06188746933917539</v>
+        <v>0.06188746933917404</v>
       </c>
       <c r="U84" t="n">
-        <v>0.01077802494998866</v>
+        <v>0.01077802494998868</v>
       </c>
       <c r="V84" t="n">
-        <v>0.02879360422387581</v>
+        <v>0.02879360422387414</v>
       </c>
       <c r="W84" t="inlineStr">
         <is>
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>0.002058900000001529</v>
+        <v>0.00198420000000965</v>
       </c>
       <c r="Y84" t="n">
         <v>8</v>
@@ -7394,7 +7394,7 @@
         <v>46.23294107433012</v>
       </c>
       <c r="H85" t="n">
-        <v>11.15169925335116</v>
+        <v>11.15169925335117</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -7418,25 +7418,25 @@
         <v>22.18728600755032</v>
       </c>
       <c r="P85" t="n">
-        <v>28.69058877115916</v>
+        <v>28.69058877115917</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.005283184801520436</v>
+        <v>0.005283184801520026</v>
       </c>
       <c r="R85" t="n">
-        <v>0.07223614815545625</v>
+        <v>0.07223614815545419</v>
       </c>
       <c r="S85" t="n">
-        <v>0.0504939745815818</v>
+        <v>0.05049397458157667</v>
       </c>
       <c r="T85" t="n">
-        <v>0.06576757932455991</v>
+        <v>0.06576757932455214</v>
       </c>
       <c r="U85" t="n">
-        <v>0.009900093809308869</v>
+        <v>0.009900093809308903</v>
       </c>
       <c r="V85" t="n">
-        <v>0.0227955591674483</v>
+        <v>0.02279555916744749</v>
       </c>
       <c r="W85" t="inlineStr">
         <is>
@@ -7444,7 +7444,7 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>0.002136100000001306</v>
+        <v>0.00174859999998489</v>
       </c>
       <c r="Y85" t="n">
         <v>8</v>
@@ -7473,10 +7473,10 @@
         <v>20.07090017489752</v>
       </c>
       <c r="G86" t="n">
-        <v>8.237583815822626</v>
+        <v>8.237583815822639</v>
       </c>
       <c r="H86" t="n">
-        <v>7.410709367178979</v>
+        <v>7.410709367178974</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -7503,22 +7503,22 @@
         <v>26.37011701239761</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.004412635305462207</v>
+        <v>0.004412635305462137</v>
       </c>
       <c r="R86" t="n">
-        <v>0.09283446754445578</v>
+        <v>0.09283446754445576</v>
       </c>
       <c r="S86" t="n">
-        <v>0.01707814544664267</v>
+        <v>0.01707814544664228</v>
       </c>
       <c r="T86" t="n">
-        <v>0.150952723205476</v>
+        <v>0.1509527232054731</v>
       </c>
       <c r="U86" t="n">
-        <v>0.0111746135321007</v>
+        <v>0.01117461353210072</v>
       </c>
       <c r="V86" t="n">
-        <v>0.01765832388179511</v>
+        <v>0.01765832388179596</v>
       </c>
       <c r="W86" t="inlineStr">
         <is>
@@ -7526,7 +7526,7 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>0.001837899999998172</v>
+        <v>0.001435600000007753</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -7552,13 +7552,13 @@
         <v>0.00640677020655607</v>
       </c>
       <c r="F87" t="n">
-        <v>20.00627296786136</v>
+        <v>20.00627296786135</v>
       </c>
       <c r="G87" t="n">
         <v>111.6262286706742</v>
       </c>
       <c r="H87" t="n">
-        <v>9.11013800532862</v>
+        <v>9.110138005328617</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -7585,22 +7585,22 @@
         <v>17.52147257500578</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.004906724043874225</v>
+        <v>0.00490672404387426</v>
       </c>
       <c r="R87" t="n">
-        <v>0.06650799371746687</v>
+        <v>0.06650799371747036</v>
       </c>
       <c r="S87" t="n">
-        <v>0.04981689107941177</v>
+        <v>0.04981689107941394</v>
       </c>
       <c r="T87" t="n">
-        <v>0.01874269936168645</v>
+        <v>0.01874269936168659</v>
       </c>
       <c r="U87" t="n">
         <v>0.01020739658064683</v>
       </c>
       <c r="V87" t="n">
-        <v>0.004629243667989769</v>
+        <v>0.004629243667988455</v>
       </c>
       <c r="W87" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>0.002233900000000233</v>
+        <v>0.001790200000016284</v>
       </c>
       <c r="Y87" t="n">
         <v>9</v>
@@ -7634,13 +7634,13 @@
         <v>359.997057076316</v>
       </c>
       <c r="F88" t="n">
-        <v>20.00475961414789</v>
+        <v>20.00475961414788</v>
       </c>
       <c r="G88" t="n">
         <v>36.76724567800183</v>
       </c>
       <c r="H88" t="n">
-        <v>5.432897794463258</v>
+        <v>5.432897794463259</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7667,22 +7667,22 @@
         <v>23.17281034436146</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.004766012931807387</v>
+        <v>0.004766012931807494</v>
       </c>
       <c r="R88" t="n">
-        <v>0.05967235127498188</v>
+        <v>0.05967235127498109</v>
       </c>
       <c r="S88" t="n">
-        <v>0.02560109158343139</v>
+        <v>0.0256010915834327</v>
       </c>
       <c r="T88" t="n">
-        <v>0.08085209978240503</v>
+        <v>0.08085209978240712</v>
       </c>
       <c r="U88" t="n">
-        <v>0.01013305553013333</v>
+        <v>0.01013305553013336</v>
       </c>
       <c r="V88" t="n">
-        <v>0.03826591601690024</v>
+        <v>0.03826591601690009</v>
       </c>
       <c r="W88" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>0.003633399999998232</v>
+        <v>0.001693599999981643</v>
       </c>
       <c r="Y88" t="n">
         <v>8</v>
@@ -7716,13 +7716,13 @@
         <v>0.002645836019523528</v>
       </c>
       <c r="F89" t="n">
-        <v>19.99862623956033</v>
+        <v>19.99862623956032</v>
       </c>
       <c r="G89" t="n">
         <v>118.1583001542562</v>
       </c>
       <c r="H89" t="n">
-        <v>14.45264372849737</v>
+        <v>14.45264372849736</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7743,28 +7743,28 @@
         <v>18.86895112245551</v>
       </c>
       <c r="O89" t="n">
-        <v>60.80637739182801</v>
+        <v>60.80637739182799</v>
       </c>
       <c r="P89" t="n">
-        <v>18.85725271185251</v>
+        <v>18.8572527118525</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.005100792162173807</v>
+        <v>0.005100792162175312</v>
       </c>
       <c r="R89" t="n">
-        <v>0.09667088325648836</v>
+        <v>0.09667088325655775</v>
       </c>
       <c r="S89" t="n">
-        <v>0.08731646081797553</v>
+        <v>0.08731646081803708</v>
       </c>
       <c r="T89" t="n">
-        <v>0.03785706568245482</v>
+        <v>0.03785706568248035</v>
       </c>
       <c r="U89" t="n">
-        <v>0.01009384383110825</v>
+        <v>0.01009384383110827</v>
       </c>
       <c r="V89" t="n">
-        <v>0.003201673015476803</v>
+        <v>0.003201673015472481</v>
       </c>
       <c r="W89" t="inlineStr">
         <is>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>0.004311699999995255</v>
+        <v>0.003560899999996536</v>
       </c>
       <c r="Y89" t="n">
         <v>19</v>
@@ -7798,13 +7798,13 @@
         <v>9.200058313044149e-05</v>
       </c>
       <c r="F90" t="n">
-        <v>20.09581949180132</v>
+        <v>20.09581949180131</v>
       </c>
       <c r="G90" t="n">
         <v>116.5161217223055</v>
       </c>
       <c r="H90" t="n">
-        <v>9.143421673408259</v>
+        <v>9.143421673408252</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7825,28 +7825,28 @@
         <v>16.60650249154164</v>
       </c>
       <c r="O90" t="n">
-        <v>41.13450206046988</v>
+        <v>41.13450206046986</v>
       </c>
       <c r="P90" t="n">
-        <v>16.70407475720251</v>
+        <v>16.7040747572025</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.00489588377465645</v>
+        <v>0.004895883774656233</v>
       </c>
       <c r="R90" t="n">
-        <v>0.06615571766671961</v>
+        <v>0.06615571766671119</v>
       </c>
       <c r="S90" t="n">
-        <v>0.04849064425092883</v>
+        <v>0.04849064425092275</v>
       </c>
       <c r="T90" t="n">
-        <v>0.01860603559902711</v>
+        <v>0.0186060355990269</v>
       </c>
       <c r="U90" t="n">
-        <v>0.009961257691972116</v>
+        <v>0.009961257691972125</v>
       </c>
       <c r="V90" t="n">
-        <v>0.02831060378241685</v>
+        <v>0.0283106037824085</v>
       </c>
       <c r="W90" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>0.00408310000000256</v>
+        <v>0.002218700000014451</v>
       </c>
       <c r="Y90" t="n">
         <v>10</v>
@@ -7883,10 +7883,10 @@
         <v>20.00018031606106</v>
       </c>
       <c r="G91" t="n">
-        <v>90.41492565843271</v>
+        <v>90.41492565843267</v>
       </c>
       <c r="H91" t="n">
-        <v>6.038724943261277</v>
+        <v>6.038724943261279</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7907,28 +7907,28 @@
         <v>19.33745493689766</v>
       </c>
       <c r="O91" t="n">
-        <v>25.92452013929662</v>
+        <v>25.9245201392966</v>
       </c>
       <c r="P91" t="n">
         <v>19.27051638100526</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.004858534654896671</v>
+        <v>0.004858534654896661</v>
       </c>
       <c r="R91" t="n">
-        <v>0.05695249869040422</v>
+        <v>0.05695249869039974</v>
       </c>
       <c r="S91" t="n">
-        <v>0.03680068762306979</v>
+        <v>0.03680068762306802</v>
       </c>
       <c r="T91" t="n">
-        <v>0.03608531392616678</v>
+        <v>0.036085313926167</v>
       </c>
       <c r="U91" t="n">
-        <v>0.01039500552147799</v>
+        <v>0.01039500552147794</v>
       </c>
       <c r="V91" t="n">
-        <v>0.03244705347729224</v>
+        <v>0.03244705347729759</v>
       </c>
       <c r="W91" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>0.002237000000000933</v>
+        <v>0.00218169999999418</v>
       </c>
       <c r="Y91" t="n">
         <v>9</v>
@@ -7968,7 +7968,7 @@
         <v>27.07623597359887</v>
       </c>
       <c r="H92" t="n">
-        <v>4.97167720699433</v>
+        <v>4.971677206994328</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7995,22 +7995,22 @@
         <v>22.93568734280449</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.004572526731304271</v>
+        <v>0.004572526731304457</v>
       </c>
       <c r="R92" t="n">
-        <v>0.06302192258400395</v>
+        <v>0.06302192258400308</v>
       </c>
       <c r="S92" t="n">
-        <v>0.02119426438554672</v>
+        <v>0.02119426438554813</v>
       </c>
       <c r="T92" t="n">
-        <v>0.09536150167603848</v>
+        <v>0.0953615016760439</v>
       </c>
       <c r="U92" t="n">
-        <v>0.01071516156339683</v>
+        <v>0.01071516156339684</v>
       </c>
       <c r="V92" t="n">
-        <v>0.05711813051734049</v>
+        <v>0.05711813051733959</v>
       </c>
       <c r="W92" t="inlineStr">
         <is>
@@ -8018,7 +8018,7 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>0.002039499999995087</v>
+        <v>0.00167030000000068</v>
       </c>
       <c r="Y92" t="n">
         <v>8</v>
@@ -8047,10 +8047,10 @@
         <v>19.93815560142584</v>
       </c>
       <c r="G93" t="n">
-        <v>36.10923673295691</v>
+        <v>36.1092367329569</v>
       </c>
       <c r="H93" t="n">
-        <v>6.949215053996063</v>
+        <v>6.949215053996066</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -8077,22 +8077,22 @@
         <v>24.81504343020139</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.004909472620717345</v>
+        <v>0.004909472620717382</v>
       </c>
       <c r="R93" t="n">
-        <v>0.06192112014529468</v>
+        <v>0.06192112014529253</v>
       </c>
       <c r="S93" t="n">
-        <v>0.0298125334011786</v>
+        <v>0.02981253340117807</v>
       </c>
       <c r="T93" t="n">
-        <v>0.07865634993445231</v>
+        <v>0.07865634993445257</v>
       </c>
       <c r="U93" t="n">
-        <v>0.009405261149651111</v>
+        <v>0.009405261149651104</v>
       </c>
       <c r="V93" t="n">
-        <v>0.00617624488369673</v>
+        <v>0.006176244883697689</v>
       </c>
       <c r="W93" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>0.002042500000001723</v>
+        <v>0.001584799999989173</v>
       </c>
       <c r="Y93" t="n">
         <v>8</v>
@@ -8153,28 +8153,28 @@
         <v>7.253282679324334</v>
       </c>
       <c r="O94" t="n">
-        <v>62.2445911006828</v>
+        <v>62.24459110068278</v>
       </c>
       <c r="P94" t="n">
-        <v>7.137862898003786</v>
+        <v>7.137862898003791</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.004700844053590188</v>
+        <v>0.0047008440535863</v>
       </c>
       <c r="R94" t="n">
-        <v>0.07332179458057783</v>
+        <v>0.07332179458047491</v>
       </c>
       <c r="S94" t="n">
-        <v>0.0374204020801216</v>
+        <v>0.03742040208007054</v>
       </c>
       <c r="T94" t="n">
-        <v>0.04386685880375751</v>
+        <v>0.04386685880369667</v>
       </c>
       <c r="U94" t="n">
-        <v>0.00889288606842375</v>
+        <v>0.008892886068423705</v>
       </c>
       <c r="V94" t="n">
-        <v>0.06019989084405629</v>
+        <v>0.06019989084405455</v>
       </c>
       <c r="W94" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>0.004776700000000744</v>
+        <v>0.004422800000014604</v>
       </c>
       <c r="Y94" t="n">
         <v>22</v>
@@ -8238,25 +8238,25 @@
         <v>45.89408425650555</v>
       </c>
       <c r="P95" t="n">
-        <v>18.75448893535228</v>
+        <v>18.75448893535227</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.004989802439660424</v>
+        <v>0.004989802439660108</v>
       </c>
       <c r="R95" t="n">
-        <v>0.07464570353662203</v>
+        <v>0.07464570353659664</v>
       </c>
       <c r="S95" t="n">
-        <v>0.06131555846492132</v>
+        <v>0.06131555846490267</v>
       </c>
       <c r="T95" t="n">
-        <v>0.01848232651362386</v>
+        <v>0.01848232651362142</v>
       </c>
       <c r="U95" t="n">
-        <v>0.009001497167453503</v>
+        <v>0.009001497167453498</v>
       </c>
       <c r="V95" t="n">
-        <v>0.01762345309493106</v>
+        <v>0.01762345309493066</v>
       </c>
       <c r="W95" t="inlineStr">
         <is>
@@ -8264,7 +8264,7 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>0.002494699999999739</v>
+        <v>0.001973499999991191</v>
       </c>
       <c r="Y95" t="n">
         <v>10</v>
@@ -8317,28 +8317,28 @@
         <v>14.32873211053184</v>
       </c>
       <c r="O96" t="n">
-        <v>48.2696519765762</v>
+        <v>48.26965197657621</v>
       </c>
       <c r="P96" t="n">
         <v>14.29146883183403</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.004800159770853512</v>
+        <v>0.004800159770853266</v>
       </c>
       <c r="R96" t="n">
-        <v>0.06795554557094871</v>
+        <v>0.06795554557094284</v>
       </c>
       <c r="S96" t="n">
-        <v>0.04850442877961161</v>
+        <v>0.04850442877960721</v>
       </c>
       <c r="T96" t="n">
-        <v>0.02255697937676326</v>
+        <v>0.0225569793767621</v>
       </c>
       <c r="U96" t="n">
-        <v>0.00996065013322428</v>
+        <v>0.009960650133224298</v>
       </c>
       <c r="V96" t="n">
-        <v>0.01927600942655706</v>
+        <v>0.0192760094265569</v>
       </c>
       <c r="W96" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>0.003450800000003085</v>
+        <v>0.003516799999999876</v>
       </c>
       <c r="Y96" t="n">
         <v>15</v>
@@ -8372,13 +8372,13 @@
         <v>359.9947537549695</v>
       </c>
       <c r="F97" t="n">
-        <v>20.00385533883473</v>
+        <v>20.00385533883472</v>
       </c>
       <c r="G97" t="n">
-        <v>41.06315479770016</v>
+        <v>41.06315479770014</v>
       </c>
       <c r="H97" t="n">
-        <v>5.314727228734495</v>
+        <v>5.314727228734497</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>22.83371745752602</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.004784366840752521</v>
+        <v>0.004784366840752791</v>
       </c>
       <c r="R97" t="n">
-        <v>0.05849234771423893</v>
+        <v>0.05849234771423926</v>
       </c>
       <c r="S97" t="n">
-        <v>0.02651650634516157</v>
+        <v>0.02651650634516335</v>
       </c>
       <c r="T97" t="n">
-        <v>0.07588602457119352</v>
+        <v>0.0758860245711995</v>
       </c>
       <c r="U97" t="n">
-        <v>0.009439133903489686</v>
+        <v>0.009439133903489714</v>
       </c>
       <c r="V97" t="n">
-        <v>0.01834019851034274</v>
+        <v>0.01834019851034429</v>
       </c>
       <c r="W97" t="inlineStr">
         <is>
@@ -8428,7 +8428,7 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>0.002157900000000268</v>
+        <v>0.001694100000008802</v>
       </c>
       <c r="Y97" t="n">
         <v>8</v>
@@ -8487,22 +8487,22 @@
         <v>32.36805139543623</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.00543903543124692</v>
+        <v>0.005439035431247075</v>
       </c>
       <c r="R98" t="n">
-        <v>0.07867309943932785</v>
+        <v>0.07867309943933407</v>
       </c>
       <c r="S98" t="n">
-        <v>0.05570454950599059</v>
+        <v>0.05570454950599631</v>
       </c>
       <c r="T98" t="n">
-        <v>0.08090506447159977</v>
+        <v>0.08090506447160581</v>
       </c>
       <c r="U98" t="n">
-        <v>0.009674011144129448</v>
+        <v>0.009674011144129495</v>
       </c>
       <c r="V98" t="n">
-        <v>0.03784845640763872</v>
+        <v>0.03784845640763739</v>
       </c>
       <c r="W98" t="inlineStr">
         <is>
@@ -8510,7 +8510,7 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>0.002184699999993711</v>
+        <v>0.001596599999999171</v>
       </c>
       <c r="Y98" t="n">
         <v>8</v>
@@ -8536,13 +8536,13 @@
         <v>0.01945900471177246</v>
       </c>
       <c r="F99" t="n">
-        <v>19.90571245525248</v>
+        <v>19.90571245525247</v>
       </c>
       <c r="G99" t="n">
-        <v>150.7338833204394</v>
+        <v>150.7338833204395</v>
       </c>
       <c r="H99" t="n">
-        <v>14.55196849391086</v>
+        <v>14.55196849391084</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -8566,25 +8566,25 @@
         <v>78.05002127569966</v>
       </c>
       <c r="P99" t="n">
-        <v>9.929158393559518</v>
+        <v>9.929158393559506</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.005094731127806424</v>
+        <v>0.005094731127821867</v>
       </c>
       <c r="R99" t="n">
-        <v>0.1096785927904707</v>
+        <v>0.1096785927909889</v>
       </c>
       <c r="S99" t="n">
-        <v>0.06570684594352985</v>
+        <v>0.06570684594383708</v>
       </c>
       <c r="T99" t="n">
-        <v>0.07884812141737987</v>
+        <v>0.07884812141775192</v>
       </c>
       <c r="U99" t="n">
-        <v>0.00982972541377136</v>
+        <v>0.009829725413771405</v>
       </c>
       <c r="V99" t="n">
-        <v>0.03323191917416683</v>
+        <v>0.03323191917417336</v>
       </c>
       <c r="W99" t="inlineStr">
         <is>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>0.005113899999997784</v>
+        <v>0.004862800000012157</v>
       </c>
       <c r="Y99" t="n">
         <v>23</v>
@@ -8651,19 +8651,19 @@
         <v>13.60513643696283</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.004710459016369983</v>
+        <v>0.004710459016369841</v>
       </c>
       <c r="R100" t="n">
-        <v>0.06365797322295555</v>
+        <v>0.06365797322294935</v>
       </c>
       <c r="S100" t="n">
-        <v>0.04395117693695744</v>
+        <v>0.04395117693695366</v>
       </c>
       <c r="T100" t="n">
-        <v>0.02091915172149508</v>
+        <v>0.02091915172149348</v>
       </c>
       <c r="U100" t="n">
-        <v>0.01086755482244262</v>
+        <v>0.01086755482244261</v>
       </c>
       <c r="V100" t="n">
         <v>0.06202846814963953</v>
@@ -8674,7 +8674,7 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>0.003073499999999285</v>
+        <v>0.002496699999994689</v>
       </c>
       <c r="Y100" t="n">
         <v>13</v>
@@ -8727,28 +8727,28 @@
         <v>15.73131543785253</v>
       </c>
       <c r="O101" t="n">
-        <v>40.81085613957237</v>
+        <v>40.81085613957238</v>
       </c>
       <c r="P101" t="n">
-        <v>15.78684394905158</v>
+        <v>15.78684394905157</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.004844835885665854</v>
+        <v>0.004844835885666024</v>
       </c>
       <c r="R101" t="n">
-        <v>0.06370662584422067</v>
+        <v>0.06370662584422167</v>
       </c>
       <c r="S101" t="n">
-        <v>0.04533354684181173</v>
+        <v>0.04533354684181339</v>
       </c>
       <c r="T101" t="n">
-        <v>0.01857454668206045</v>
+        <v>0.01857454668206005</v>
       </c>
       <c r="U101" t="n">
-        <v>0.009719670939571082</v>
+        <v>0.009719670939571075</v>
       </c>
       <c r="V101" t="n">
-        <v>0.0193148699984671</v>
+        <v>0.01931486999846672</v>
       </c>
       <c r="W101" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>0.00256170000000111</v>
+        <v>0.002019200000006549</v>
       </c>
       <c r="Y101" t="n">
         <v>10</v>
